--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sum" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>DT</t>
   </si>
@@ -93,6 +93,36 @@
   <si>
     <t>STD</t>
   </si>
+  <si>
+    <t>DT_NM</t>
+  </si>
+  <si>
+    <t>DT_RUS</t>
+  </si>
+  <si>
+    <t>LR_NM</t>
+  </si>
+  <si>
+    <t>LR_RUS</t>
+  </si>
+  <si>
+    <t>RF_NM</t>
+  </si>
+  <si>
+    <t>RF_RUS</t>
+  </si>
+  <si>
+    <t>XGB_NM</t>
+  </si>
+  <si>
+    <t>XGB_RF_NM</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS</t>
+  </si>
+  <si>
+    <t>XGB_RUS</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -181,6 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -213,6 +244,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>ccuracy </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -246,23 +307,162 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
+      <c:stockChart>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:strRef>
-              <c:f>Sum!$B$9</c:f>
+              <c:f>Sum!$B$8:$U$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0,92114</c:v>
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sum!$B$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.93511196977233801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93969808190269677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94666625537344884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94402104721611457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92650235201180542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92760447949198843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93320046449512428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93242926893343536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95792964834057459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96616208114304214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96501394668685747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96573229018215045</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9589498620166278</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96678432928555369</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96684290728836442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96575494350914715</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94704571173113117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94894483063642254</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95488548143959073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95206432975269728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -275,19 +475,338 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sum!$B$3:$U$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.3973245736729629E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.383637783409615E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.241982832242391E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.421286136195187E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6410063612766462E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4239643391520141E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.352564846398643E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.255576653119753E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.318734934382443E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1280125295568939E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.173382748719781E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.094855242140098E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.073328013164818E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.8068920782314033E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.067985918278754E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.6413997519254665E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.45948144582754E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.208446452318284E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.2257007316863629E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.180209050195234E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sum!$B$3:$U$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.3973245736729629E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.383637783409615E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.241982832242391E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.421286136195187E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6410063612766462E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4239643391520141E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.352564846398643E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.255576653119753E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.318734934382443E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1280125295568939E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.173382748719781E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.094855242140098E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.073328013164818E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.8068920782314033E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.067985918278754E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.6413997519254665E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.45948144582754E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.208446452318284E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.2257007316863629E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.180209050195234E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sum!$B$8:$U$8</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sum!$B$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.92113872403560837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92586170406860058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9342464270510249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92980818585416269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.910092288399039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91336483610046826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91967481603113788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91987350240223786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94474229899675011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95488195584747315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95328011919965971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95478373776074943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94821658188497959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95697743720732231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95616304810557684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95611354375722168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93245089727285579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93686036611323975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9426284741227271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94026223925074492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
-              <c:f>Sum!$B$2:$U$2</c:f>
+              <c:f>Sum!$B$8:$U$8</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -352,73 +871,76 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sum!$C$9:$U$9</c:f>
+              <c:f>Sum!$B$16:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.92586170406860058</c:v>
+                  <c:v>0.90716547829887872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9342464270510249</c:v>
+                  <c:v>0.91202532623450439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92980818585416269</c:v>
+                  <c:v>0.92182659872860095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.910092288399039</c:v>
+                  <c:v>0.91559532449221082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91336483610046826</c:v>
+                  <c:v>0.89368222478627257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91967481603113788</c:v>
+                  <c:v>0.89912519270894808</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91987350240223786</c:v>
+                  <c:v>0.90614916756715147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94474229899675011</c:v>
+                  <c:v>0.90731773587104037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95488195584747315</c:v>
+                  <c:v>0.93155494965292562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95328011919965971</c:v>
+                  <c:v>0.94360183055190416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95478373776074943</c:v>
+                  <c:v>0.94154629171246196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94821658188497959</c:v>
+                  <c:v>0.9438351853393484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95697743720732231</c:v>
+                  <c:v>0.93748330175333139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95616304810557684</c:v>
+                  <c:v>0.94717054512909093</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95611354375722168</c:v>
+                  <c:v>0.94548318892278926</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93245089727285579</c:v>
+                  <c:v>0.94647214400529622</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93686036611323975</c:v>
+                  <c:v>0.91785608281458042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9426284741227271</c:v>
+                  <c:v>0.92477590159005696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94026223925074492</c:v>
+                  <c:v>0.93037146680586347</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92846014874879257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -429,11 +951,939 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516178288"/>
-        <c:axId val="516177896"/>
-      </c:scatterChart>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="330961256"/>
+        <c:axId val="330961648"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="330961256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330961648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="516178288"/>
+        <c:axId val="330961648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330961256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>ccuracy </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sum!$B$8:$AE$8</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sum!$B$14:$AE$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.93511196977233801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93969808190269677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94666625537344884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94402104721611457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92650235201180542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92760447949198843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93320046449512428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93242926893343536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95792964834057459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96616208114304214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96501394668685747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96573229018215045</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9589498620166278</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96678432928555369</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96684290728836442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96575494350914715</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94704571173113117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94894483063642254</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95488548143959073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95206432975269728</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93695154394752544</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94169765933734451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93209765997136595</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93920519584901507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9685800892010894</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97080247870971992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97023691737985773</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97122059251831072</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94806397944421161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95557337268471032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sum!$B$8:$AE$8</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sum!$B$15:$AE$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.92113872403560837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92586170406860058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9342464270510249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92980818585416269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.910092288399039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91336483610046826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91967481603113788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91987350240223786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94474229899675011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95488195584747315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95328011919965971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95478373776074943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94821658188497959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95697743720732231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95616304810557684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95611354375722168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93245089727285579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93686036611323975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9426284741227271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94026223925074492</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.9226567536337652</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.93037511403028661</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.91659234932798161</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.92670054126375978</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.95781663929939798</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.96028005838350661</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.96008350057775349</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.96247479170467687</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.93538052666788307</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.94482150459161973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sum!$B$8:$AE$8</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sum!$B$16:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.90716547829887872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91202532623450439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92182659872860095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91559532449221082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89368222478627257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89912519270894808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90614916756715147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90731773587104037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93155494965292562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94360183055190416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94154629171246196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9438351853393484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93748330175333139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94717054512909093</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94548318892278926</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94647214400529622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91785608281458042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92477590159005696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93037146680586347</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92846014874879257</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90836196332000496</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91905256872322871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90108703868459727</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91419588667850449</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94705318939770655</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9497576380572933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94993008377564925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95372899089104302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92269707389155453</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93406963649852914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="417096296"/>
+        <c:axId val="417094336"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="417096296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,8 +1912,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -490,12 +1940,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516177896"/>
+        <c:crossAx val="417094336"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="516177896"/>
+        <c:axId val="417094336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,14 +1974,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -552,9 +1999,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516178288"/>
+        <c:crossAx val="417096296"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -641,8 +2088,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -669,8 +2156,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -771,7 +2258,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -803,10 +2290,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -967,8 +2454,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1032,6 +2519,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1127,17 +2625,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1161,20 +3164,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1079499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81430</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1299882</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1326029</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>23159</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1184,6 +3187,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1479,22 +3514,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="21" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="21" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1558,8 +3593,38 @@
       <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1623,8 +3688,38 @@
       <c r="U3" s="3">
         <v>1.180209050195234E-2</v>
       </c>
+      <c r="V3">
+        <v>1.429479031376025E-2</v>
+      </c>
+      <c r="W3">
+        <v>1.1322545307057889E-2</v>
+      </c>
+      <c r="X3">
+        <v>1.550531064338437E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.2504654585255289E-2</v>
+      </c>
+      <c r="Z3">
+        <v>1.0763449901691469E-2</v>
+      </c>
+      <c r="AA3">
+        <v>1.052242032621333E-2</v>
+      </c>
+      <c r="AB3">
+        <v>1.0153416802104199E-2</v>
+      </c>
+      <c r="AC3">
+        <v>8.7458008136338476E-3</v>
+      </c>
+      <c r="AD3">
+        <v>1.2683452776328499E-2</v>
+      </c>
+      <c r="AE3">
+        <v>1.0751868093090561E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1688,8 +3783,38 @@
       <c r="U4" s="3">
         <v>1.1954819285505619E-2</v>
       </c>
+      <c r="V4">
+        <v>1.43629691585651E-2</v>
+      </c>
+      <c r="W4">
+        <v>1.1620290066991539E-2</v>
+      </c>
+      <c r="X4">
+        <v>1.5772718603611249E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.267563924245178E-2</v>
+      </c>
+      <c r="Z4">
+        <v>1.062986918513358E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.071779329198388E-2</v>
+      </c>
+      <c r="AB4">
+        <v>9.9700390063455786E-3</v>
+      </c>
+      <c r="AC4">
+        <v>8.7708831239315683E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.262638641765872E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.0939984047178559E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +3878,38 @@
       <c r="U5" s="3">
         <v>1.5152635434208941E-2</v>
       </c>
+      <c r="V5">
+        <v>1.7663261871229689E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.502490373269964E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.855586129263305E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.803892866778466E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.5320312332146171E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.2604174704719751E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.448270233016876E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.2192001438690869E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.758172270233917E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.52487488977364E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +3973,38 @@
       <c r="U6" s="3">
         <v>1.7901953509607469E-2</v>
       </c>
+      <c r="V6">
+        <v>1.9659952253904441E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.834446678041151E-2</v>
+      </c>
+      <c r="X6">
+        <v>2.2280326102006792E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.0462545326918959E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.2631863415101689E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.6278767586276739E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1.135533294911272E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.389675914032559E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.6622134970815491E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.7701979667564972E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1883,8 +4068,38 @@
       <c r="U8" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="V8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1948,8 +4163,38 @@
       <c r="U9" s="3">
         <v>0.94026223925074492</v>
       </c>
+      <c r="V9">
+        <v>0.9226567536337652</v>
+      </c>
+      <c r="W9">
+        <v>0.93037511403028661</v>
+      </c>
+      <c r="X9">
+        <v>0.91659234932798161</v>
+      </c>
+      <c r="Y9">
+        <v>0.92670054126375978</v>
+      </c>
+      <c r="Z9">
+        <v>0.95781663929939798</v>
+      </c>
+      <c r="AA9">
+        <v>0.96028005838350661</v>
+      </c>
+      <c r="AB9">
+        <v>0.96008350057775349</v>
+      </c>
+      <c r="AC9">
+        <v>0.96247479170467687</v>
+      </c>
+      <c r="AD9">
+        <v>0.93538052666788307</v>
+      </c>
+      <c r="AE9">
+        <v>0.94482150459161973</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2013,8 +4258,38 @@
       <c r="U10" s="3">
         <v>0.93979553561880236</v>
       </c>
+      <c r="V10">
+        <v>0.92242596960032797</v>
+      </c>
+      <c r="W10">
+        <v>0.92955370532558479</v>
+      </c>
+      <c r="X10">
+        <v>0.91587544346353156</v>
+      </c>
+      <c r="Y10">
+        <v>0.92627092142231404</v>
+      </c>
+      <c r="Z10">
+        <v>0.95784895598778064</v>
+      </c>
+      <c r="AA10">
+        <v>0.95999705263845381</v>
+      </c>
+      <c r="AB10">
+        <v>0.96036365312623861</v>
+      </c>
+      <c r="AC10">
+        <v>0.9625373945142337</v>
+      </c>
+      <c r="AD10">
+        <v>0.93513780110800726</v>
+      </c>
+      <c r="AE10">
+        <v>0.94447419063557003</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2078,8 +4353,38 @@
       <c r="U11" s="3">
         <v>0.9470924915839608</v>
       </c>
+      <c r="V11">
+        <v>0.92530533203508714</v>
+      </c>
+      <c r="W11">
+        <v>0.94049300535832192</v>
+      </c>
+      <c r="X11">
+        <v>0.92367381376203683</v>
+      </c>
+      <c r="Y11">
+        <v>0.9318189329871015</v>
+      </c>
+      <c r="Z11">
+        <v>0.95783625239467829</v>
+      </c>
+      <c r="AA11">
+        <v>0.96634228249257448</v>
+      </c>
+      <c r="AB11">
+        <v>0.95443316323357918</v>
+      </c>
+      <c r="AC11">
+        <v>0.96083490777096203</v>
+      </c>
+      <c r="AD11">
+        <v>0.93908722611257289</v>
+      </c>
+      <c r="AE11">
+        <v>0.95030262703998758</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2142,6 +4447,372 @@
       </c>
       <c r="U12" s="3">
         <v>0.93289299126957048</v>
+      </c>
+      <c r="V12">
+        <v>0.91987611569038674</v>
+      </c>
+      <c r="W12">
+        <v>0.91917865678193433</v>
+      </c>
+      <c r="X12">
+        <v>0.90858313417548675</v>
+      </c>
+      <c r="Y12">
+        <v>0.92124591523191734</v>
+      </c>
+      <c r="Z12">
+        <v>0.95803931132029474</v>
+      </c>
+      <c r="AA12">
+        <v>0.95393966736575142</v>
+      </c>
+      <c r="AB12">
+        <v>0.9665190459932691</v>
+      </c>
+      <c r="AC12">
+        <v>0.96444325220699412</v>
+      </c>
+      <c r="AD12">
+        <v>0.9315049017216992</v>
+      </c>
+      <c r="AE12">
+        <v>0.93904038433400006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <f>B9+B3</f>
+        <v>0.93511196977233801</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:AE14" si="0">C9+C3</f>
+        <v>0.93969808190269677</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94666625537344884</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94402104721611457</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.92650235201180542</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.92760447949198843</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93320046449512428</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93242926893343536</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95792964834057459</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96616208114304214</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96501394668685747</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96573229018215045</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9589498620166278</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96678432928555369</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96684290728836442</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96575494350914715</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94704571173113117</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94894483063642254</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95488548143959073</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95206432975269728</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93695154394752544</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94169765933734451</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93209765997136595</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93920519584901507</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9685800892010894</v>
+      </c>
+      <c r="AA14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97080247870971992</v>
+      </c>
+      <c r="AB14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97023691737985773</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97122059251831072</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94806397944421161</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95557337268471032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>0.92113872403560837</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.92586170406860058</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.9342464270510249</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.92980818585416269</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.910092288399039</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.91336483610046826</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.91967481603113788</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91987350240223786</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.94474229899675011</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.95488195584747315</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.95328011919965971</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.95478373776074943</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.94821658188497959</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.95697743720732231</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.95616304810557684</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.95611354375722168</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.93245089727285579</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.93686036611323975</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.9426284741227271</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.94026223925074492</v>
+      </c>
+      <c r="V15">
+        <v>0.9226567536337652</v>
+      </c>
+      <c r="W15">
+        <v>0.93037511403028661</v>
+      </c>
+      <c r="X15">
+        <v>0.91659234932798161</v>
+      </c>
+      <c r="Y15">
+        <v>0.92670054126375978</v>
+      </c>
+      <c r="Z15">
+        <v>0.95781663929939798</v>
+      </c>
+      <c r="AA15">
+        <v>0.96028005838350661</v>
+      </c>
+      <c r="AB15">
+        <v>0.96008350057775349</v>
+      </c>
+      <c r="AC15">
+        <v>0.96247479170467687</v>
+      </c>
+      <c r="AD15">
+        <v>0.93538052666788307</v>
+      </c>
+      <c r="AE15">
+        <v>0.94482150459161973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <f>B15-B3</f>
+        <v>0.90716547829887872</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:U16" si="1">C15-C3</f>
+        <v>0.91202532623450439</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92182659872860095</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91559532449221082</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.89368222478627257</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.89912519270894808</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.90614916756715147</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.90731773587104037</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.93155494965292562</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94360183055190416</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94154629171246196</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.9438351853393484</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.93748330175333139</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94717054512909093</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94548318892278926</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94647214400529622</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91785608281458042</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92477590159005696</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.93037146680586347</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92846014874879257</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" ref="V16" si="2">V15-V3</f>
+        <v>0.90836196332000496</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" ref="W16" si="3">W15-W3</f>
+        <v>0.91905256872322871</v>
+      </c>
+      <c r="X16" s="6">
+        <f t="shared" ref="X16" si="4">X15-X3</f>
+        <v>0.90108703868459727</v>
+      </c>
+      <c r="Y16" s="6">
+        <f t="shared" ref="Y16" si="5">Y15-Y3</f>
+        <v>0.91419588667850449</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" ref="Z16" si="6">Z15-Z3</f>
+        <v>0.94705318939770655</v>
+      </c>
+      <c r="AA16" s="6">
+        <f t="shared" ref="AA16" si="7">AA15-AA3</f>
+        <v>0.9497576380572933</v>
+      </c>
+      <c r="AB16" s="6">
+        <f t="shared" ref="AB16" si="8">AB15-AB3</f>
+        <v>0.94993008377564925</v>
+      </c>
+      <c r="AC16" s="6">
+        <f t="shared" ref="AC16" si="9">AC15-AC3</f>
+        <v>0.95372899089104302</v>
+      </c>
+      <c r="AD16" s="6">
+        <f t="shared" ref="AD16" si="10">AD15-AD3</f>
+        <v>0.92269707389155453</v>
+      </c>
+      <c r="AE16" s="6">
+        <f t="shared" ref="AE16" si="11">AE15-AE3</f>
+        <v>0.93406963649852914</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sum" sheetId="3" r:id="rId1"/>
@@ -965,11 +965,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="330961256"/>
-        <c:axId val="330961648"/>
+        <c:axId val="480002600"/>
+        <c:axId val="480815800"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="330961256"/>
+        <c:axId val="480002600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330961648"/>
+        <c:crossAx val="480815800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +1020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330961648"/>
+        <c:axId val="480815800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1071,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330961256"/>
+        <c:crossAx val="480002600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,7 +1760,7 @@
             <c:numRef>
               <c:f>Sum!$B$16:$AE$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.90716547829887872</c:v>
@@ -1879,11 +1879,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="417096296"/>
-        <c:axId val="417094336"/>
+        <c:axId val="199560840"/>
+        <c:axId val="199566328"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="417096296"/>
+        <c:axId val="199560840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1940,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417094336"/>
+        <c:crossAx val="199566328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417094336"/>
+        <c:axId val="199566328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1999,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417096296"/>
+        <c:crossAx val="199560840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,20 +3516,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="21" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="21" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>1.0751868093090561E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>1.0939984047178559E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>1.52487488977364E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>1.7701979667564972E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.94482150459161973</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0.94447419063557003</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0.95030262703998758</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0.93904038433400006</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <f>B9+B3</f>
         <v>0.93511196977233801</v>
@@ -4601,7 +4601,7 @@
         <v>0.95557337268471032</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0.92113872403560837</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0.94482150459161973</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <f>B15-B3</f>
         <v>0.90716547829887872</v>

--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sum" sheetId="3" r:id="rId1"/>
+    <sheet name="SUM2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>DT</t>
   </si>
@@ -123,6 +124,18 @@
   <si>
     <t>XGB_RUS</t>
   </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -212,6 +225,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -486,149 +503,12 @@
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
+            <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sum!$B$3:$U$3</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>1.3973245736729629E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.383637783409615E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.241982832242391E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.421286136195187E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.6410063612766462E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.4239643391520141E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.352564846398643E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.255576653119753E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.318734934382443E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1.1280125295568939E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.173382748719781E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.094855242140098E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1.073328013164818E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>9.8068920782314033E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1.067985918278754E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>9.6413997519254665E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1.45948144582754E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1.208446452318284E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1.2257007316863629E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1.180209050195234E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sum!$B$3:$U$3</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>1.3973245736729629E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.383637783409615E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.241982832242391E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.421286136195187E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.6410063612766462E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.4239643391520141E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.352564846398643E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.255576653119753E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.318734934382443E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1.1280125295568939E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.173382748719781E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.094855242140098E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1.073328013164818E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>9.8068920782314033E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1.067985918278754E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>9.6413997519254665E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1.45948144582754E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1.208446452318284E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1.2257007316863629E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1.180209050195234E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
+            <c:val val="2.0000000000000004E-2"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -965,11 +845,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="480002600"/>
-        <c:axId val="480815800"/>
+        <c:axId val="496454736"/>
+        <c:axId val="496453168"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="480002600"/>
+        <c:axId val="496454736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +892,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480815800"/>
+        <c:crossAx val="496453168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480815800"/>
+        <c:axId val="496453168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +951,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480002600"/>
+        <c:crossAx val="496454736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1879,11 +1759,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="199560840"/>
-        <c:axId val="199566328"/>
+        <c:axId val="496459832"/>
+        <c:axId val="496455912"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="199560840"/>
+        <c:axId val="496459832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1820,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199566328"/>
+        <c:crossAx val="496455912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199566328"/>
+        <c:axId val="496455912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1879,749 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199560840"/>
+        <c:crossAx val="496459832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1378203648581654E-2"/>
+          <c:y val="8.2744004461795889E-2"/>
+          <c:w val="0.95740589015717925"/>
+          <c:h val="0.75821826789219671"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SUM2'!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SUM2'!$B$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.93492596850992638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93475700132301598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94642214010591086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94132999601348033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92177918610961929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92361728876074234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92843726533823323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93319867345829366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95278980535510427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95939319541327084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96209775854100743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96083120309250758</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96042179607606382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96448784160753553</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96550688430367615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96336529500762724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94350949465273615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94735550941457469</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95346559761956939</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9520464708970473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SUM2'!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SUM2'!$B$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.92069520983467568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92162907268170446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9330325814536341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92726817042606502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90647113890066422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9089473684210525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91506265664160391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91892230576441092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94014130281192576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94802005012531321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95080200501253131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95057644110275685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94714780274127452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95463659147869662</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95458646616541354</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95298245614035082</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92951047407093412</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93476190476190468</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94157894736842096</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93954887218045102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SUM2'!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SUM2'!$B$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.90646445115942498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90850114404039295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91964302280135735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91320634483864971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89116309169170915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89427744808136267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90168804794497459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90464593807052818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92749280026874725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93664690483735558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9395062514840552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94032167911300613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93387380940648523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9447853413498577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94366604802715093</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9425996172730744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9155114534891321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92216830010923467</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92969229711727253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92705127346385474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="497285680"/>
+        <c:axId val="497287640"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="497285680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497287640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497287640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497285680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2128,6 +2750,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -2645,6 +3307,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3219,6 +4397,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558799</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3516,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4820,4 +6033,908 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="21" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.92069520983467568</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.92162907268170446</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.9330325814536341</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.92726817042606502</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.90647113890066422</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.9089473684210525</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.91506265664160391</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.91892230576441092</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.94014130281192576</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.94802005012531321</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.95080200501253131</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.95057644110275685</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.94714780274127452</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.95463659147869662</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.95458646616541354</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.95298245614035082</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.92951047407093412</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.93476190476190468</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.94157894736842096</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.93954887218045102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.90113623731338721</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.92145701936136648</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.93221161362916438</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.92682745938086131</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.88173298997967076</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.90823896377687063</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.91361419088238138</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.91812800944837025</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.92488603377171463</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.94762080255490777</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.95006766056340952</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.95017780192127743</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.93475146953772703</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.95465648424647032</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.95437579002777484</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.95288451957500631</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.91184741203702979</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.93422845206211746</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.94092344525717253</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0.9391582929771094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.91618666942959803</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.92324988147918052</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.94305380789337845</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.93209192203863511</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.90997136473320228</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.91556986578716348</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.92971714982003217</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.92708111181641073</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.94591827501944958</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.95430837672687385</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.96359571580724179</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.95759222010519407</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.94063002515926175</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.95431497626030481</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.9586335751807219</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.95461714802569542</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.92945485316378385</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.9414923791614862</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.95100639721482305</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0.94501111915567193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.8871120279276421</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.91999623115577889</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.92190150753768829</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.92190402010050232</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.85652649952396065</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.90145477386934669</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.90977864321608037</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.90532370675975882</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.94125402010050241</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.93714095477386938</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.94311105527638173</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.92942716597905406</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.95518894472361804</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.95032261306532662</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.95132613065326632</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.89563154554109814</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.92737035175879401</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.93127613065326631</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.93363618090452249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.423075867525074E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.3127928641311499E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.3389558652276709E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.4061825587415261E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.5308047208955121E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.466992033968988E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.3374608696629349E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.427636769388275E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.264850254317851E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.137314528795768E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.1295753528476169E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.0254761989750691E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.327399333478925E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <v>9.851250128838869E-3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1.092041813826263E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1.0382838867276411E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1.3999020581802061E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1.2593604652669959E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1.1886650251148431E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1.249759871659631E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.7987868750199421E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.338543933721611E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.3850658888659211E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.441998852872188E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.0042895550446561E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.478337536660655E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.3624189574353679E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.461201816089038E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.6297511422786619E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.1669554166518549E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.168009117791617E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.046180017350337E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.6635315677837801E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>9.8524952924680716E-3</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.100413455325247E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1.0477899056576839E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1.8162758178494321E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1.288920620969662E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1.2218533687204309E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1.2680375939647119E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.2672138262737129E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.5847059329521591E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.450051269608485E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.58723961661709E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.836858430781072E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.972267689262281E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.0144853107083471E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.829801255893182E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.8888919372371991E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.269533672126035E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.2367577079911389E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.311863561243049E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2.0317308765703632E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1.3303734459659379E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1.318655377013439E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1.2537799086311221E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2.1839583174588919E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <v>1.479328828426439E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1.326095756499711E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1.5214646200732511E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.5047613423763989E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.0157378820135859E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.0865844061474421E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.0468537897478489E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.4620667164265373E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.105879502506925E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.1737383735638761E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.2150179398829219E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.6055922121323221E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.802738346431141E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.8181903233692651E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1.638857895960303E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2.4151659007285432E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1.408335162201348E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.502844777645489E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1.492567064831297E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2.8886322612524981E-2</v>
+      </c>
+      <c r="S11" s="7">
+        <v>1.9671390769533972E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1.8215268148586379E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1.830295833688422E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
+        <f>B15+B8</f>
+        <v>0.93492596850992638</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:U14" si="0">C15+C8</f>
+        <v>0.93475700132301598</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94642214010591086</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94132999601348033</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92177918610961929</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92361728876074234</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92843726533823323</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93319867345829366</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95278980535510427</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95939319541327084</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96209775854100743</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96083120309250758</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96042179607606382</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96448784160753553</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96550688430367615</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96336529500762724</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94350949465273615</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94735550941457469</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95346559761956939</v>
+      </c>
+      <c r="U14" s="7">
+        <f>U15+U8</f>
+        <v>0.9520464708970473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.92069520983467568</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.92162907268170446</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.9330325814536341</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.92726817042606502</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.90647113890066422</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.9089473684210525</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.91506265664160391</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.91892230576441092</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.94014130281192576</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.94802005012531321</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.95080200501253131</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.95057644110275685</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.94714780274127452</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.95463659147869662</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.95458646616541354</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.95298245614035082</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.92951047407093412</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.93476190476190468</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.94157894736842096</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.93954887218045102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <f>B15-B8</f>
+        <v>0.90646445115942498</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:U16" si="1">C15-C8</f>
+        <v>0.90850114404039295</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91964302280135735</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91320634483864971</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89116309169170915</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89427744808136267</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90168804794497459</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90464593807052818</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92749280026874725</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93664690483735558</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9395062514840552</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94032167911300613</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93387380940648523</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9447853413498577</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94366604802715093</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9425996172730744</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9155114534891321</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92216830010923467</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92969229711727253</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92705127346385474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -291,7 +291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -845,11 +844,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="496454736"/>
-        <c:axId val="496453168"/>
+        <c:axId val="496745720"/>
+        <c:axId val="496742192"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="496454736"/>
+        <c:axId val="496745720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +891,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496453168"/>
+        <c:crossAx val="496742192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496453168"/>
+        <c:axId val="496742192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +950,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496454736"/>
+        <c:crossAx val="496745720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,7 +1044,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1759,11 +1757,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="496459832"/>
-        <c:axId val="496455912"/>
+        <c:axId val="496742976"/>
+        <c:axId val="496748464"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="496459832"/>
+        <c:axId val="496742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1818,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496455912"/>
+        <c:crossAx val="496748464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1828,7 +1826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496455912"/>
+        <c:axId val="496748464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +1877,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496459832"/>
+        <c:crossAx val="496742976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2515,11 +2513,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="497285680"/>
-        <c:axId val="497287640"/>
+        <c:axId val="496749248"/>
+        <c:axId val="214905800"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="497285680"/>
+        <c:axId val="496749248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2560,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497287640"/>
+        <c:crossAx val="214905800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2570,7 +2568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497287640"/>
+        <c:axId val="214905800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2619,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497285680"/>
+        <c:crossAx val="496749248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6039,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -6707,7 +6705,7 @@
         <v>0.93492596850992638</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" ref="C14:U14" si="0">C15+C8</f>
+        <f t="shared" ref="C14:T14" si="0">C15+C8</f>
         <v>0.93475700132301598</v>
       </c>
       <c r="D14" s="7">

--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sum" sheetId="3" r:id="rId1"/>
     <sheet name="SUM2" sheetId="4" r:id="rId2"/>
+    <sheet name="mean" sheetId="6" r:id="rId3"/>
+    <sheet name="std" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="94">
   <si>
     <t>DT</t>
   </si>
@@ -136,6 +138,168 @@
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>DT_RUS_1</t>
+  </si>
+  <si>
+    <t>DT_RUS_10</t>
+  </si>
+  <si>
+    <t>DT_RUS_2</t>
+  </si>
+  <si>
+    <t>DT_RUS_3</t>
+  </si>
+  <si>
+    <t>DT_RUS_4</t>
+  </si>
+  <si>
+    <t>DT_RUS_5</t>
+  </si>
+  <si>
+    <t>DT_RUS_6</t>
+  </si>
+  <si>
+    <t>DT_RUS_7</t>
+  </si>
+  <si>
+    <t>DT_RUS_8</t>
+  </si>
+  <si>
+    <t>DT_RUS_9</t>
+  </si>
+  <si>
+    <t>DT_RUS_AVG</t>
+  </si>
+  <si>
+    <t>LR_</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+  <si>
+    <t>xgb_rf</t>
+  </si>
+  <si>
+    <t>LR_RUS_1</t>
+  </si>
+  <si>
+    <t>LR_RUS_10</t>
+  </si>
+  <si>
+    <t>LR_RUS_2</t>
+  </si>
+  <si>
+    <t>LR_RUS_3</t>
+  </si>
+  <si>
+    <t>LR_RUS_4</t>
+  </si>
+  <si>
+    <t>LR_RUS_5</t>
+  </si>
+  <si>
+    <t>LR_RUS_6</t>
+  </si>
+  <si>
+    <t>LR_RUS_7</t>
+  </si>
+  <si>
+    <t>LR_RUS_8</t>
+  </si>
+  <si>
+    <t>LR_RUS_9</t>
+  </si>
+  <si>
+    <t>RF_RUS_1</t>
+  </si>
+  <si>
+    <t>RF_RUS_10</t>
+  </si>
+  <si>
+    <t>RF_RUS_2</t>
+  </si>
+  <si>
+    <t>RF_RUS_3</t>
+  </si>
+  <si>
+    <t>RF_RUS_4</t>
+  </si>
+  <si>
+    <t>RF_RUS_5</t>
+  </si>
+  <si>
+    <t>RF_RUS_6</t>
+  </si>
+  <si>
+    <t>RF_RUS_7</t>
+  </si>
+  <si>
+    <t>RF_RUS_8</t>
+  </si>
+  <si>
+    <t>RF_RUS_9</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_1</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_10</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_2</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_3</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_4</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_5</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_6</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_7</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_8</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS_9</t>
+  </si>
+  <si>
+    <t>XGB_RUS_1</t>
+  </si>
+  <si>
+    <t>XGB_RUS_10</t>
+  </si>
+  <si>
+    <t>XGB_RUS_2</t>
+  </si>
+  <si>
+    <t>XGB_RUS_3</t>
+  </si>
+  <si>
+    <t>XGB_RUS_4</t>
+  </si>
+  <si>
+    <t>XGB_RUS_5</t>
+  </si>
+  <si>
+    <t>XGB_RUS_6</t>
+  </si>
+  <si>
+    <t>XGB_RUS_7</t>
+  </si>
+  <si>
+    <t>XGB_RUS_8</t>
+  </si>
+  <si>
+    <t>XGB_RUS_9</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,11 +369,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -227,6 +402,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -291,6 +473,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -844,11 +1027,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="496745720"/>
-        <c:axId val="496742192"/>
+        <c:axId val="489153808"/>
+        <c:axId val="489148320"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="496745720"/>
+        <c:axId val="489153808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +1074,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496742192"/>
+        <c:crossAx val="489148320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +1082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496742192"/>
+        <c:axId val="489148320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1133,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496745720"/>
+        <c:crossAx val="489153808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1044,6 +1227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1757,11 +1941,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="496742976"/>
-        <c:axId val="496748464"/>
+        <c:axId val="489149104"/>
+        <c:axId val="489151848"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="496742976"/>
+        <c:axId val="489149104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +2002,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496748464"/>
+        <c:crossAx val="489151848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +2010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496748464"/>
+        <c:axId val="489151848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +2061,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496742976"/>
+        <c:crossAx val="489149104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,9 +2209,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'SUM2'!$B$1:$U$1</c:f>
+              <c:f>'SUM2'!$B$1:$AE$1</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>LR</c:v>
                 </c:pt>
@@ -2041,62 +2225,92 @@
                   <c:v>LR_SMOTE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>DT</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>DT_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>DT_GAN</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>DT_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>RF</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>RF_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>RF_GAN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>RF_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>XGB</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>XGB_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>XGB_GAN</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>XGB_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>XGB_RF</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>XGB_RF_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>XGB_RF_GAN</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_NM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SUM2'!$B$14:$U$14</c:f>
+              <c:f>'SUM2'!$B$14:$AE$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.93492596850992638</c:v>
                 </c:pt>
@@ -2110,52 +2324,82 @@
                   <c:v>0.94132999601348033</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.93801601704269344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94007347123454554</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.92177918610961929</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.92361728876074234</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.92843726533823323</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.93319867345829366</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>0.93650647705613732</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92114304027014282</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.95278980535510427</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.95939319541327084</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.96209775854100743</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.96083120309250758</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.94017392975550484</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96313049303240494</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.96042179607606382</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.96448784160753553</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0.96550688430367615</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.96336529500762724</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>0.94042462966051876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93856694056201728</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.94350949465273615</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>0.94735550941457469</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>0.95346559761956939</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>0.9520464708970473</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9390902209706401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95188570874610412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,9 +2433,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'SUM2'!$B$1:$U$1</c:f>
+              <c:f>'SUM2'!$B$1:$AE$1</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>LR</c:v>
                 </c:pt>
@@ -2205,62 +2449,92 @@
                   <c:v>LR_SMOTE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>DT</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>DT_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>DT_GAN</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>DT_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>RF</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>RF_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>RF_GAN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>RF_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>XGB</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>XGB_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>XGB_GAN</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>XGB_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>XGB_RF</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>XGB_RF_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>XGB_RF_GAN</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_NM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SUM2'!$B$15:$U$15</c:f>
+              <c:f>'SUM2'!$B$15:$AE$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.92069520983467568</c:v>
                 </c:pt>
@@ -2274,51 +2548,81 @@
                   <c:v>0.92726817042606502</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.92597994987468657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92726817042606502</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.90647113890066422</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.9089473684210525</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.91506265664160391</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.91892230576441092</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>0.92437844611528808</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9056390977443608</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.94014130281192576</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.94802005012531321</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.95080200501253131</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.95057644110275685</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.92832080200501255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95225563909774447</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.94714780274127452</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.95463659147869662</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0.95458646616541354</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.95298245614035082</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>0.9285839598997494</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.92951047407093412</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
+                  <c:v>0.92951047407093412</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.93476190476190468</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>0.94157894736842096</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
+                  <c:v>0.93954887218045102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92706265664160414</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.93954887218045102</c:v>
                 </c:pt>
               </c:numCache>
@@ -2353,9 +2657,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'SUM2'!$B$1:$U$1</c:f>
+              <c:f>'SUM2'!$B$1:$AE$1</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>LR</c:v>
                 </c:pt>
@@ -2369,62 +2673,92 @@
                   <c:v>LR_SMOTE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>DT</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>DT_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>DT_GAN</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>DT_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>RF</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>RF_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>RF_GAN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>RF_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>XGB</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>XGB_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>XGB_GAN</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>XGB_SMOTE</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>XGB_RF</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>XGB_RF_BrdSMOTE</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>XGB_RF_GAN</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_NM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SUM2'!$B$16:$U$16</c:f>
+              <c:f>'SUM2'!$B$16:$AE$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.90646445115942498</c:v>
                 </c:pt>
@@ -2438,52 +2772,82 @@
                   <c:v>0.91320634483864971</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.9139438827066797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9144628696175845</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.89116309169170915</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.89427744808136267</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.90168804794497459</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.90464593807052818</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>0.91225041517443883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89013515521857878</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.92749280026874725</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.93664690483735558</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.9395062514840552</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.94032167911300613</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.91646767425452025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94138078516308399</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.93387380940648523</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.9447853413498577</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0.94366604802715093</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.9425996172730744</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>0.91674329013898004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92045400757985096</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.9155114534891321</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>0.92216830010923467</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>0.92969229711727253</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>0.92705127346385474</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91503509231256819</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92721203561479792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,16 +2877,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="496749248"/>
-        <c:axId val="214905800"/>
+        <c:axId val="489150672"/>
+        <c:axId val="489154200"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="496749248"/>
+        <c:axId val="489150672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2560,7 +2938,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214905800"/>
+        <c:crossAx val="489154200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214905800"/>
+        <c:axId val="489154200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2997,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496749248"/>
+        <c:crossAx val="489150672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4413,7 +4791,7 @@
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>558799</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>177799</xdr:rowOff>
@@ -4727,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6035,18 +6413,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="21" width="15.6328125" customWidth="1"/>
+    <col min="2" max="30" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -6063,55 +6441,85 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6128,55 +6536,90 @@
         <v>0.92726817042606502</v>
       </c>
       <c r="F2" s="7">
+        <f>mean!M11</f>
+        <v>0.92597994987468657</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.91746867167919799</v>
+      </c>
+      <c r="H2" s="7">
         <v>0.90647113890066422</v>
       </c>
-      <c r="G2" s="7">
+      <c r="I2" s="7">
         <v>0.9089473684210525</v>
       </c>
-      <c r="H2" s="7">
+      <c r="J2" s="7">
         <v>0.91506265664160391</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="7">
         <v>0.91892230576441092</v>
       </c>
-      <c r="J2" s="7">
+      <c r="L2" s="10">
+        <f>mean!M2</f>
+        <v>0.92437844611528808</v>
+      </c>
+      <c r="M2">
+        <v>0.9056390977443608</v>
+      </c>
+      <c r="N2" s="7">
         <v>0.94014130281192576</v>
       </c>
-      <c r="K2" s="7">
+      <c r="O2" s="7">
         <v>0.94802005012531321</v>
       </c>
-      <c r="L2" s="7">
+      <c r="P2" s="7">
         <v>0.95080200501253131</v>
       </c>
-      <c r="M2" s="7">
+      <c r="Q2" s="7">
         <v>0.95057644110275685</v>
       </c>
-      <c r="N2" s="7">
+      <c r="R2" s="10">
+        <f>mean!M20</f>
+        <v>0.92832080200501255</v>
+      </c>
+      <c r="S2">
+        <v>0.95225563909774447</v>
+      </c>
+      <c r="T2" s="7">
         <v>0.94714780274127452</v>
       </c>
-      <c r="O2" s="7">
+      <c r="U2" s="7">
         <v>0.95463659147869662</v>
       </c>
-      <c r="P2" s="7">
+      <c r="V2" s="7">
         <v>0.95458646616541354</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="W2" s="7">
         <v>0.95298245614035082</v>
       </c>
-      <c r="R2" s="7">
+      <c r="X2" s="10">
+        <f>mean!M38</f>
+        <v>0.9285839598997494</v>
+      </c>
+      <c r="Y2">
+        <v>0.95819548872180449</v>
+      </c>
+      <c r="Z2" s="7">
         <v>0.92951047407093412</v>
       </c>
-      <c r="S2" s="7">
+      <c r="AA2" s="7">
         <v>0.93476190476190468</v>
       </c>
-      <c r="T2" s="7">
+      <c r="AB2" s="7">
         <v>0.94157894736842096</v>
       </c>
-      <c r="U2" s="7">
+      <c r="AC2" s="7">
         <v>0.93954887218045102</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD2" s="10">
+        <f>mean!M30</f>
+        <v>0.92706265664160414</v>
+      </c>
+      <c r="AE2">
+        <v>0.93107769423558906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -6192,56 +6635,76 @@
       <c r="E3" s="7">
         <v>0.92682745938086131</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>0.91763369640941661</v>
+      </c>
+      <c r="H3" s="7">
         <v>0.88173298997967076</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="7">
         <v>0.90823896377687063</v>
       </c>
-      <c r="H3" s="7">
+      <c r="J3" s="7">
         <v>0.91361419088238138</v>
       </c>
-      <c r="I3" s="7">
+      <c r="K3" s="7">
         <v>0.91812800944837025</v>
       </c>
-      <c r="J3" s="7">
+      <c r="L3" s="10"/>
+      <c r="M3">
+        <v>0.90449735182515323</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.92488603377171463</v>
       </c>
-      <c r="K3" s="7">
+      <c r="O3" s="7">
         <v>0.94762080255490777</v>
       </c>
-      <c r="L3" s="7">
+      <c r="P3" s="7">
         <v>0.95006766056340952</v>
       </c>
-      <c r="M3" s="7">
+      <c r="Q3" s="7">
         <v>0.95017780192127743</v>
       </c>
-      <c r="N3" s="7">
+      <c r="R3" s="10"/>
+      <c r="S3">
+        <v>0.95208623711328488</v>
+      </c>
+      <c r="T3" s="7">
         <v>0.93475146953772703</v>
       </c>
-      <c r="O3" s="7">
+      <c r="U3" s="7">
         <v>0.95465648424647032</v>
       </c>
-      <c r="P3" s="7">
+      <c r="V3" s="7">
         <v>0.95437579002777484</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="W3" s="7">
         <v>0.95288451957500631</v>
       </c>
-      <c r="R3" s="7">
+      <c r="X3" s="10"/>
+      <c r="Y3">
+        <v>0.95842238824330561</v>
+      </c>
+      <c r="Z3" s="7">
         <v>0.91184741203702979</v>
       </c>
-      <c r="S3" s="7">
+      <c r="AA3" s="7">
         <v>0.93422845206211746</v>
       </c>
-      <c r="T3" s="7">
+      <c r="AB3" s="7">
         <v>0.94092344525717253</v>
       </c>
-      <c r="U3" s="7">
+      <c r="AC3" s="7">
         <v>0.9391582929771094</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD3" s="10"/>
+      <c r="AE3">
+        <v>0.93058980490150589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -6257,56 +6720,76 @@
       <c r="E4" s="7">
         <v>0.93209192203863511</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>0.91630351185382464</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.90997136473320228</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="7">
         <v>0.91556986578716348</v>
       </c>
-      <c r="H4" s="7">
+      <c r="J4" s="7">
         <v>0.92971714982003217</v>
       </c>
-      <c r="I4" s="7">
+      <c r="K4" s="7">
         <v>0.92708111181641073</v>
       </c>
-      <c r="J4" s="7">
+      <c r="L4" s="10"/>
+      <c r="M4">
+        <v>0.91538438156248436</v>
+      </c>
+      <c r="N4" s="7">
         <v>0.94591827501944958</v>
       </c>
-      <c r="K4" s="7">
+      <c r="O4" s="7">
         <v>0.95430837672687385</v>
       </c>
-      <c r="L4" s="7">
+      <c r="P4" s="7">
         <v>0.96359571580724179</v>
       </c>
-      <c r="M4" s="7">
+      <c r="Q4" s="7">
         <v>0.95759222010519407</v>
       </c>
-      <c r="N4" s="7">
+      <c r="R4" s="10"/>
+      <c r="S4">
+        <v>0.95525683935498928</v>
+      </c>
+      <c r="T4" s="7">
         <v>0.94063002515926175</v>
       </c>
-      <c r="O4" s="7">
+      <c r="U4" s="7">
         <v>0.95431497626030481</v>
       </c>
-      <c r="P4" s="7">
+      <c r="V4" s="7">
         <v>0.9586335751807219</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="W4" s="7">
         <v>0.95461714802569542</v>
       </c>
-      <c r="R4" s="7">
+      <c r="X4" s="10"/>
+      <c r="Y4">
+        <v>0.95355279706781415</v>
+      </c>
+      <c r="Z4" s="7">
         <v>0.92945485316378385</v>
       </c>
-      <c r="S4" s="7">
+      <c r="AA4" s="7">
         <v>0.9414923791614862</v>
       </c>
-      <c r="T4" s="7">
+      <c r="AB4" s="7">
         <v>0.95100639721482305</v>
       </c>
-      <c r="U4" s="7">
+      <c r="AC4" s="7">
         <v>0.94501111915567193</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD4" s="10"/>
+      <c r="AE4">
+        <v>0.93698994079354425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -6322,56 +6805,76 @@
       <c r="E5" s="7">
         <v>0.92190402010050232</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>0.91924924623115589</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.85652649952396065</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="7">
         <v>0.90145477386934669</v>
       </c>
-      <c r="H5" s="7">
+      <c r="J5" s="7">
         <v>0.89859999999999995</v>
       </c>
-      <c r="I5" s="7">
+      <c r="K5" s="7">
         <v>0.90977864321608037</v>
       </c>
-      <c r="J5" s="7">
+      <c r="L5" s="10"/>
+      <c r="M5">
+        <v>0.89429346733668336</v>
+      </c>
+      <c r="N5" s="7">
         <v>0.90532370675975882</v>
       </c>
-      <c r="K5" s="7">
+      <c r="O5" s="7">
         <v>0.94125402010050241</v>
       </c>
-      <c r="L5" s="7">
+      <c r="P5" s="7">
         <v>0.93714095477386938</v>
       </c>
-      <c r="M5" s="7">
+      <c r="Q5" s="7">
         <v>0.94311105527638173</v>
       </c>
-      <c r="N5" s="7">
+      <c r="R5" s="10"/>
+      <c r="S5">
+        <v>0.94912839195979903</v>
+      </c>
+      <c r="T5" s="7">
         <v>0.92942716597905406</v>
       </c>
-      <c r="O5" s="7">
+      <c r="U5" s="7">
         <v>0.95518894472361804</v>
       </c>
-      <c r="P5" s="7">
+      <c r="V5" s="7">
         <v>0.95032261306532662</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="W5" s="7">
         <v>0.95132613065326632</v>
       </c>
-      <c r="R5" s="7">
+      <c r="X5" s="10"/>
+      <c r="Y5">
+        <v>0.96351030150753758</v>
+      </c>
+      <c r="Z5" s="7">
         <v>0.89563154554109814</v>
       </c>
-      <c r="S5" s="7">
+      <c r="AA5" s="7">
         <v>0.92737035175879401</v>
       </c>
-      <c r="T5" s="7">
+      <c r="AB5" s="7">
         <v>0.93127613065326631</v>
       </c>
-      <c r="U5" s="7">
+      <c r="AC5" s="7">
         <v>0.93363618090452249</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD5" s="10"/>
+      <c r="AE5">
+        <v>0.9245123115577889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -6387,56 +6890,76 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -6453,55 +6976,90 @@
         <v>1.4061825587415261E-2</v>
       </c>
       <c r="F8" s="7">
+        <f>std!M2</f>
+        <v>1.2036067168006846E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.280530080848058E-2</v>
+      </c>
+      <c r="H8" s="7">
         <v>1.5308047208955121E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="I8" s="7">
         <v>1.466992033968988E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="J8" s="7">
         <v>1.3374608696629349E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="K8" s="7">
         <v>1.427636769388275E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="L8" s="7">
+        <f>std!M10</f>
+        <v>1.2128030940849216E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.550394252578202E-2</v>
+      </c>
+      <c r="N8" s="7">
         <v>1.264850254317851E-2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="O8" s="7">
         <v>1.137314528795768E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="P8" s="7">
         <v>1.1295753528476169E-2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="Q8" s="7">
         <v>1.0254761989750691E-2</v>
       </c>
-      <c r="N8" s="7">
+      <c r="R8" s="7">
+        <f>std!M18</f>
+        <v>1.1853127750492309E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.0874853934660471E-2</v>
+      </c>
+      <c r="T8" s="7">
         <v>1.327399333478925E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="U8" s="7">
         <v>9.851250128838869E-3</v>
       </c>
-      <c r="P8" s="7">
+      <c r="V8" s="7">
         <v>1.092041813826263E-2</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="W8" s="7">
         <v>1.0382838867276411E-2</v>
       </c>
-      <c r="R8" s="7">
+      <c r="X8" s="7">
+        <f>std!M34</f>
+        <v>1.1840669760769371E-2</v>
+      </c>
+      <c r="Y8">
+        <v>9.0564664910831733E-3</v>
+      </c>
+      <c r="Z8" s="7">
         <v>1.3999020581802061E-2</v>
       </c>
-      <c r="S8" s="7">
+      <c r="AA8" s="7">
         <v>1.2593604652669959E-2</v>
       </c>
-      <c r="T8" s="7">
+      <c r="AB8" s="7">
         <v>1.1886650251148431E-2</v>
       </c>
-      <c r="U8" s="7">
+      <c r="AC8" s="7">
         <v>1.249759871659631E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD8" s="10">
+        <f>std!M26</f>
+        <v>1.2027564329035994E-2</v>
+      </c>
+      <c r="AE8">
+        <v>1.2336836565653099E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -6517,56 +7075,76 @@
       <c r="E9" s="7">
         <v>1.441998852872188E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="7"/>
+      <c r="G9">
+        <v>1.2622526407812499E-2</v>
+      </c>
+      <c r="H9" s="7">
         <v>2.0042895550446561E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="I9" s="7">
         <v>1.478337536660655E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J9" s="7">
         <v>1.3624189574353679E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
         <v>1.461201816089038E-2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="L9" s="7"/>
+      <c r="M9">
+        <v>1.5972246223144991E-2</v>
+      </c>
+      <c r="N9" s="7">
         <v>1.6297511422786619E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="O9" s="7">
         <v>1.1669554166518549E-2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="P9" s="7">
         <v>1.168009117791617E-2</v>
       </c>
-      <c r="M9" s="7">
+      <c r="Q9" s="7">
         <v>1.046180017350337E-2</v>
       </c>
-      <c r="N9" s="7">
+      <c r="R9" s="7"/>
+      <c r="S9">
+        <v>1.098143599795182E-2</v>
+      </c>
+      <c r="T9" s="7">
         <v>1.6635315677837801E-2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="U9" s="7">
         <v>9.8524952924680716E-3</v>
       </c>
-      <c r="P9" s="7">
+      <c r="V9" s="7">
         <v>1.100413455325247E-2</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="W9" s="7">
         <v>1.0477899056576839E-2</v>
       </c>
-      <c r="R9" s="7">
+      <c r="X9" s="7"/>
+      <c r="Y9">
+        <v>8.9632855535042542E-3</v>
+      </c>
+      <c r="Z9" s="7">
         <v>1.8162758178494321E-2</v>
       </c>
-      <c r="S9" s="7">
+      <c r="AA9" s="7">
         <v>1.288920620969662E-2</v>
       </c>
-      <c r="T9" s="7">
+      <c r="AB9" s="7">
         <v>1.2218533687204309E-2</v>
       </c>
-      <c r="U9" s="7">
+      <c r="AC9" s="7">
         <v>1.2680375939647119E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD9" s="10"/>
+      <c r="AE9">
+        <v>1.258211144923168E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -6582,56 +7160,76 @@
       <c r="E10" s="7">
         <v>1.58723961661709E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="7"/>
+      <c r="G10">
+        <v>1.7888024206354679E-2</v>
+      </c>
+      <c r="H10" s="7">
         <v>2.836858430781072E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="I10" s="7">
         <v>1.972267689262281E-2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="J10" s="7">
         <v>2.0144853107083471E-2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="K10" s="7">
         <v>1.829801255893182E-2</v>
       </c>
-      <c r="J10" s="7">
+      <c r="L10" s="7"/>
+      <c r="M10">
+        <v>1.8666603163908651E-2</v>
+      </c>
+      <c r="N10" s="7">
         <v>1.8888919372371991E-2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="O10" s="7">
         <v>1.269533672126035E-2</v>
       </c>
-      <c r="L10" s="7">
+      <c r="P10" s="7">
         <v>1.2367577079911389E-2</v>
       </c>
-      <c r="M10" s="7">
+      <c r="Q10" s="7">
         <v>1.311863561243049E-2</v>
       </c>
-      <c r="N10" s="7">
+      <c r="R10" s="7"/>
+      <c r="S10">
+        <v>1.306765733871465E-2</v>
+      </c>
+      <c r="T10" s="7">
         <v>2.0317308765703632E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="U10" s="7">
         <v>1.3303734459659379E-2</v>
       </c>
-      <c r="P10" s="7">
+      <c r="V10" s="7">
         <v>1.318655377013439E-2</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="W10" s="7">
         <v>1.2537799086311221E-2</v>
       </c>
-      <c r="R10" s="7">
+      <c r="X10" s="7"/>
+      <c r="Y10">
+        <v>1.27603290576079E-2</v>
+      </c>
+      <c r="Z10" s="7">
         <v>2.1839583174588919E-2</v>
       </c>
-      <c r="S10" s="7">
+      <c r="AA10" s="7">
         <v>1.479328828426439E-2</v>
       </c>
-      <c r="T10" s="7">
+      <c r="AB10" s="7">
         <v>1.326095756499711E-2</v>
       </c>
-      <c r="U10" s="7">
+      <c r="AC10" s="7">
         <v>1.5214646200732511E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD10" s="10"/>
+      <c r="AE10">
+        <v>1.467772151555315E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -6647,56 +7245,76 @@
       <c r="E11" s="7">
         <v>2.0468537897478489E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="7"/>
+      <c r="G11">
+        <v>1.5976409293005381E-2</v>
+      </c>
+      <c r="H11" s="7">
         <v>3.4620667164265373E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="I11" s="7">
         <v>2.105879502506925E-2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="J11" s="7">
         <v>2.1737383735638761E-2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <v>2.2150179398829219E-2</v>
       </c>
-      <c r="J11" s="7">
+      <c r="L11" s="7"/>
+      <c r="M11">
+        <v>2.343643556423991E-2</v>
+      </c>
+      <c r="N11" s="7">
         <v>2.6055922121323221E-2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="O11" s="7">
         <v>1.802738346431141E-2</v>
       </c>
-      <c r="L11" s="7">
+      <c r="P11" s="7">
         <v>1.8181903233692651E-2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="Q11" s="7">
         <v>1.638857895960303E-2</v>
       </c>
-      <c r="N11" s="7">
+      <c r="R11" s="7"/>
+      <c r="S11">
+        <v>1.5919569317124939E-2</v>
+      </c>
+      <c r="T11" s="7">
         <v>2.4151659007285432E-2</v>
       </c>
-      <c r="O11" s="7">
+      <c r="U11" s="7">
         <v>1.408335162201348E-2</v>
       </c>
-      <c r="P11" s="7">
+      <c r="V11" s="7">
         <v>1.502844777645489E-2</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="W11" s="7">
         <v>1.492567064831297E-2</v>
       </c>
-      <c r="R11" s="7">
+      <c r="X11" s="7"/>
+      <c r="Y11">
+        <v>1.2512284963414231E-2</v>
+      </c>
+      <c r="Z11" s="7">
         <v>2.8886322612524981E-2</v>
       </c>
-      <c r="S11" s="7">
+      <c r="AA11" s="7">
         <v>1.9671390769533972E-2</v>
       </c>
-      <c r="T11" s="7">
+      <c r="AB11" s="7">
         <v>1.8215268148586379E-2</v>
       </c>
-      <c r="U11" s="7">
+      <c r="AC11" s="7">
         <v>1.830295833688422E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD11" s="10"/>
+      <c r="AE11">
+        <v>1.7956612697968909E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -6705,7 +7323,7 @@
         <v>0.93492596850992638</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" ref="C14:T14" si="0">C15+C8</f>
+        <f t="shared" ref="C14:AB14" si="0">C15+C8</f>
         <v>0.93475700132301598</v>
       </c>
       <c r="D14" s="7">
@@ -6717,71 +7335,111 @@
         <v>0.94132999601348033</v>
       </c>
       <c r="F14" s="7">
+        <f>F15+F8</f>
+        <v>0.93801601704269344</v>
+      </c>
+      <c r="G14" s="7">
+        <f>G15+G8</f>
+        <v>0.94007347123454554</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>0.92177918610961929</v>
       </c>
-      <c r="G14" s="7">
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>0.92361728876074234</v>
       </c>
-      <c r="H14" s="7">
+      <c r="J14" s="7">
         <f t="shared" si="0"/>
         <v>0.92843726533823323</v>
       </c>
-      <c r="I14" s="7">
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
         <v>0.93319867345829366</v>
       </c>
-      <c r="J14" s="7">
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93650647705613732</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92114304027014282</v>
+      </c>
+      <c r="N14" s="7">
         <f t="shared" si="0"/>
         <v>0.95278980535510427</v>
       </c>
-      <c r="K14" s="7">
+      <c r="O14" s="7">
         <f t="shared" si="0"/>
         <v>0.95939319541327084</v>
       </c>
-      <c r="L14" s="7">
+      <c r="P14" s="7">
         <f t="shared" si="0"/>
         <v>0.96209775854100743</v>
       </c>
-      <c r="M14" s="7">
+      <c r="Q14" s="7">
         <f t="shared" si="0"/>
         <v>0.96083120309250758</v>
       </c>
-      <c r="N14" s="7">
+      <c r="R14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94017392975550484</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96313049303240494</v>
+      </c>
+      <c r="T14" s="7">
         <f t="shared" si="0"/>
         <v>0.96042179607606382</v>
       </c>
-      <c r="O14" s="7">
+      <c r="U14" s="7">
         <f t="shared" si="0"/>
         <v>0.96448784160753553</v>
       </c>
-      <c r="P14" s="7">
+      <c r="V14" s="7">
         <f t="shared" si="0"/>
         <v>0.96550688430367615</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="W14" s="7">
         <f t="shared" si="0"/>
         <v>0.96336529500762724</v>
       </c>
-      <c r="R14" s="7">
+      <c r="X14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94042462966051876</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93856694056201728</v>
+      </c>
+      <c r="Z14" s="7">
         <f t="shared" si="0"/>
         <v>0.94350949465273615</v>
       </c>
-      <c r="S14" s="7">
+      <c r="AA14" s="7">
         <f t="shared" si="0"/>
         <v>0.94735550941457469</v>
       </c>
-      <c r="T14" s="7">
+      <c r="AB14" s="7">
         <f t="shared" si="0"/>
         <v>0.95346559761956939</v>
       </c>
-      <c r="U14" s="7">
-        <f>U15+U8</f>
+      <c r="AC14" s="7">
+        <f>AC15+AC8</f>
         <v>0.9520464708970473</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD14" s="7">
+        <f>AD15+AD8</f>
+        <v>0.9390902209706401</v>
+      </c>
+      <c r="AE14" s="7">
+        <f>AE15+AE8</f>
+        <v>0.95188570874610412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -6798,55 +7456,92 @@
         <v>0.92726817042606502</v>
       </c>
       <c r="F15" s="7">
+        <f>mean!M11</f>
+        <v>0.92597994987468657</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.92726817042606502</v>
+      </c>
+      <c r="H15" s="7">
         <v>0.90647113890066422</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <v>0.9089473684210525</v>
       </c>
-      <c r="H15" s="7">
+      <c r="J15" s="7">
         <v>0.91506265664160391</v>
       </c>
-      <c r="I15" s="7">
+      <c r="K15" s="7">
         <v>0.91892230576441092</v>
       </c>
-      <c r="J15" s="7">
+      <c r="L15" s="7">
+        <f>mean!M2</f>
+        <v>0.92437844611528808</v>
+      </c>
+      <c r="M15" s="7">
+        <f>M2</f>
+        <v>0.9056390977443608</v>
+      </c>
+      <c r="N15" s="7">
         <v>0.94014130281192576</v>
       </c>
-      <c r="K15" s="7">
+      <c r="O15" s="7">
         <v>0.94802005012531321</v>
       </c>
-      <c r="L15" s="7">
+      <c r="P15" s="7">
         <v>0.95080200501253131</v>
       </c>
-      <c r="M15" s="7">
+      <c r="Q15" s="7">
         <v>0.95057644110275685</v>
       </c>
-      <c r="N15" s="7">
+      <c r="R15" s="7">
+        <f>mean!M20</f>
+        <v>0.92832080200501255</v>
+      </c>
+      <c r="S15" s="7">
+        <f>mean!N20</f>
+        <v>0.95225563909774447</v>
+      </c>
+      <c r="T15" s="7">
         <v>0.94714780274127452</v>
       </c>
-      <c r="O15" s="7">
+      <c r="U15" s="7">
         <v>0.95463659147869662</v>
       </c>
-      <c r="P15" s="7">
+      <c r="V15" s="7">
         <v>0.95458646616541354</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="W15" s="7">
         <v>0.95298245614035082</v>
       </c>
-      <c r="R15" s="7">
+      <c r="X15" s="7">
+        <f>mean!M38</f>
+        <v>0.9285839598997494</v>
+      </c>
+      <c r="Y15" s="7">
         <v>0.92951047407093412</v>
       </c>
-      <c r="S15" s="7">
+      <c r="Z15" s="7">
+        <v>0.92951047407093412</v>
+      </c>
+      <c r="AA15" s="7">
         <v>0.93476190476190468</v>
       </c>
-      <c r="T15" s="7">
+      <c r="AB15" s="7">
         <v>0.94157894736842096</v>
       </c>
-      <c r="U15" s="7">
+      <c r="AC15" s="7">
         <v>0.93954887218045102</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AD15" s="7">
+        <f>mean!M30</f>
+        <v>0.92706265664160414</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0.93954887218045102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -6855,7 +7550,7 @@
         <v>0.90646445115942498</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:U16" si="1">C15-C8</f>
+        <f t="shared" ref="C16:AE16" si="1">C15-C8</f>
         <v>0.90850114404039295</v>
       </c>
       <c r="D16" s="7">
@@ -6863,76 +7558,2430 @@
         <v>0.91964302280135735</v>
       </c>
       <c r="E16" s="7">
+        <f>E15-E8</f>
+        <v>0.91320634483864971</v>
+      </c>
+      <c r="F16" s="7">
+        <f>F15-F8</f>
+        <v>0.9139438827066797</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="1"/>
-        <v>0.91320634483864971</v>
-      </c>
-      <c r="F16" s="7">
+        <v>0.9144628696175845</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>0.89116309169170915</v>
       </c>
-      <c r="G16" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>0.89427744808136267</v>
       </c>
-      <c r="H16" s="7">
+      <c r="J16" s="7">
         <f t="shared" si="1"/>
         <v>0.90168804794497459</v>
       </c>
-      <c r="I16" s="7">
+      <c r="K16" s="7">
         <f t="shared" si="1"/>
         <v>0.90464593807052818</v>
       </c>
-      <c r="J16" s="7">
+      <c r="L16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91225041517443883</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89013515521857878</v>
+      </c>
+      <c r="N16" s="7">
         <f t="shared" si="1"/>
         <v>0.92749280026874725</v>
       </c>
-      <c r="K16" s="7">
+      <c r="O16" s="7">
         <f t="shared" si="1"/>
         <v>0.93664690483735558</v>
       </c>
-      <c r="L16" s="7">
+      <c r="P16" s="7">
         <f t="shared" si="1"/>
         <v>0.9395062514840552</v>
       </c>
-      <c r="M16" s="7">
+      <c r="Q16" s="7">
         <f t="shared" si="1"/>
         <v>0.94032167911300613</v>
       </c>
-      <c r="N16" s="7">
+      <c r="R16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91646767425452025</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94138078516308399</v>
+      </c>
+      <c r="T16" s="7">
         <f t="shared" si="1"/>
         <v>0.93387380940648523</v>
       </c>
-      <c r="O16" s="7">
+      <c r="U16" s="7">
         <f t="shared" si="1"/>
         <v>0.9447853413498577</v>
       </c>
-      <c r="P16" s="7">
+      <c r="V16" s="7">
         <f t="shared" si="1"/>
         <v>0.94366604802715093</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="W16" s="7">
         <f t="shared" si="1"/>
         <v>0.9425996172730744</v>
       </c>
-      <c r="R16" s="7">
+      <c r="X16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91674329013898004</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92045400757985096</v>
+      </c>
+      <c r="Z16" s="7">
         <f t="shared" si="1"/>
         <v>0.9155114534891321</v>
       </c>
-      <c r="S16" s="7">
+      <c r="AA16" s="7">
         <f t="shared" si="1"/>
         <v>0.92216830010923467</v>
       </c>
-      <c r="T16" s="7">
+      <c r="AB16" s="7">
         <f t="shared" si="1"/>
         <v>0.92969229711727253</v>
       </c>
-      <c r="U16" s="7">
+      <c r="AC16" s="7">
         <f t="shared" si="1"/>
         <v>0.92705127346385474</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91503509231256819</v>
+      </c>
+      <c r="AE16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92721203561479792</v>
+      </c>
+    </row>
+    <row r="25" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U26">
+        <v>1.280530080848058E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U27">
+        <v>1.2622526407812499E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U28">
+        <v>1.7888024206354679E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U29">
+        <v>1.5976409293005381E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U34">
+        <v>1.550394252578202E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U35">
+        <v>1.5972246223144991E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U36">
+        <v>1.8666603163908651E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U37">
+        <v>2.343643556423991E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U42">
+        <v>1.0874853934660471E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U43">
+        <v>1.098143599795182E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U44">
+        <v>1.306765733871465E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U45">
+        <v>1.5919569317124939E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U50">
+        <v>1.2336836565653099E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U51">
+        <v>1.258211144923168E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U52">
+        <v>1.467772151555315E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U53">
+        <v>1.7956612697968909E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U58">
+        <v>9.0564664910831733E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U59">
+        <v>8.9632855535042542E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U60">
+        <v>1.27603290576079E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U61">
+        <v>1.2512284963414231E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.9056390977443608</v>
+      </c>
+      <c r="C2">
+        <v>0.91152882205513786</v>
+      </c>
+      <c r="D2">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="E2">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="F2">
+        <v>0.92616541353383464</v>
+      </c>
+      <c r="G2">
+        <v>0.92380952380952353</v>
+      </c>
+      <c r="H2">
+        <v>0.92553884711779455</v>
+      </c>
+      <c r="I2">
+        <v>0.92706766917293226</v>
+      </c>
+      <c r="J2">
+        <v>0.92406015037593991</v>
+      </c>
+      <c r="K2">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="L2">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:L2)/10</f>
+        <v>0.92437844611528808</v>
+      </c>
+      <c r="N2">
+        <v>0.9056390977443608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.90449735182515323</v>
+      </c>
+      <c r="C3">
+        <v>0.91013422592407256</v>
+      </c>
+      <c r="D3">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="E3">
+        <v>0.92393537072926302</v>
+      </c>
+      <c r="F3">
+        <v>0.92551538223751306</v>
+      </c>
+      <c r="G3">
+        <v>0.92302649229802003</v>
+      </c>
+      <c r="H3">
+        <v>0.92490875980682408</v>
+      </c>
+      <c r="I3">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="J3">
+        <v>0.92335104317265315</v>
+      </c>
+      <c r="K3">
+        <v>0.92628724865687351</v>
+      </c>
+      <c r="L3">
+        <v>0.92677941508237693</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="0">SUM(C3:L3)/10</f>
+        <v>0.92367749625588425</v>
+      </c>
+      <c r="N3">
+        <v>0.90449735182515323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.91538438156248436</v>
+      </c>
+      <c r="C4">
+        <v>0.92447008973769096</v>
+      </c>
+      <c r="D4">
+        <v>0.93257312893700772</v>
+      </c>
+      <c r="E4">
+        <v>0.93168066876674982</v>
+      </c>
+      <c r="F4">
+        <v>0.93359883267629018</v>
+      </c>
+      <c r="G4">
+        <v>0.93209446415278041</v>
+      </c>
+      <c r="H4">
+        <v>0.93265568048280501</v>
+      </c>
+      <c r="I4">
+        <v>0.93380794610785001</v>
+      </c>
+      <c r="J4">
+        <v>0.93194025447350759</v>
+      </c>
+      <c r="K4">
+        <v>0.93333308133998227</v>
+      </c>
+      <c r="L4">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.93200667634496437</v>
+      </c>
+      <c r="N4">
+        <v>0.91538438156248436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.89429346733668336</v>
+      </c>
+      <c r="C5">
+        <v>0.89678266331658296</v>
+      </c>
+      <c r="D5">
+        <v>0.92054924623115586</v>
+      </c>
+      <c r="E5">
+        <v>0.91668517587939691</v>
+      </c>
+      <c r="F5">
+        <v>0.91794472361809043</v>
+      </c>
+      <c r="G5">
+        <v>0.91452964824120608</v>
+      </c>
+      <c r="H5">
+        <v>0.91764020100502519</v>
+      </c>
+      <c r="I5">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="J5">
+        <v>0.91528165829145736</v>
+      </c>
+      <c r="K5">
+        <v>0.91969396984924612</v>
+      </c>
+      <c r="L5">
+        <v>0.92009120603015093</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.9158845226130653</v>
+      </c>
+      <c r="N5">
+        <v>0.89429346733668336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>SUM(C2:L2)/10</f>
+        <v>0.92437844611528808</v>
+      </c>
+      <c r="E8">
+        <f>SUM(C11:L11)/10</f>
+        <v>0.92597994987468657</v>
+      </c>
+      <c r="G8">
+        <f>SUM(C20:L20)/10</f>
+        <v>0.92832080200501255</v>
+      </c>
+      <c r="I8">
+        <f>SUM(C38:L38)/10</f>
+        <v>0.9285839598997494</v>
+      </c>
+      <c r="K8">
+        <f>SUM(C30:L30)/10</f>
+        <v>0.92706265664160414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0.91746867167919799</v>
+      </c>
+      <c r="C11">
+        <v>0.92754385964912278</v>
+      </c>
+      <c r="D11">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="E11">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="F11">
+        <v>0.92616541353383464</v>
+      </c>
+      <c r="G11">
+        <v>0.92380952380952353</v>
+      </c>
+      <c r="H11">
+        <v>0.92553884711779455</v>
+      </c>
+      <c r="I11">
+        <v>0.92706766917293226</v>
+      </c>
+      <c r="J11">
+        <v>0.92406015037593991</v>
+      </c>
+      <c r="K11">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="L11">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="M11">
+        <f>SUM(C11:L11)/10</f>
+        <v>0.92597994987468657</v>
+      </c>
+      <c r="N11">
+        <v>0.91746867167919799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0.91763369640941661</v>
+      </c>
+      <c r="C12">
+        <v>0.92711585307426181</v>
+      </c>
+      <c r="D12">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="E12">
+        <v>0.92393537072926302</v>
+      </c>
+      <c r="F12">
+        <v>0.92551538223751306</v>
+      </c>
+      <c r="G12">
+        <v>0.92302649229802003</v>
+      </c>
+      <c r="H12">
+        <v>0.92490875980682408</v>
+      </c>
+      <c r="I12">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="J12">
+        <v>0.92335104317265315</v>
+      </c>
+      <c r="K12">
+        <v>0.92628724865687351</v>
+      </c>
+      <c r="L12">
+        <v>0.92677941508237693</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M14" si="1">SUM(C12:L12)/10</f>
+        <v>0.92537565897090313</v>
+      </c>
+      <c r="N12">
+        <v>0.91763369640941661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0.91630351185382464</v>
+      </c>
+      <c r="C13">
+        <v>0.93257678882424255</v>
+      </c>
+      <c r="D13">
+        <v>0.93257312893700772</v>
+      </c>
+      <c r="E13">
+        <v>0.93168066876674982</v>
+      </c>
+      <c r="F13">
+        <v>0.93359883267629018</v>
+      </c>
+      <c r="G13">
+        <v>0.93209446415278041</v>
+      </c>
+      <c r="H13">
+        <v>0.93265568048280501</v>
+      </c>
+      <c r="I13">
+        <v>0.93380794610785001</v>
+      </c>
+      <c r="J13">
+        <v>0.93194025447350759</v>
+      </c>
+      <c r="K13">
+        <v>0.93333308133998227</v>
+      </c>
+      <c r="L13">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.93281734625361956</v>
+      </c>
+      <c r="N13">
+        <v>0.91630351185382464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0.91924924623115589</v>
+      </c>
+      <c r="C14">
+        <v>0.92205150753768839</v>
+      </c>
+      <c r="D14">
+        <v>0.92054924623115586</v>
+      </c>
+      <c r="E14">
+        <v>0.91668517587939691</v>
+      </c>
+      <c r="F14">
+        <v>0.91794472361809043</v>
+      </c>
+      <c r="G14">
+        <v>0.91452964824120608</v>
+      </c>
+      <c r="H14">
+        <v>0.91764020100502519</v>
+      </c>
+      <c r="I14">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="J14">
+        <v>0.91528165829145736</v>
+      </c>
+      <c r="K14">
+        <v>0.91969396984924612</v>
+      </c>
+      <c r="L14">
+        <v>0.92009120603015093</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.91841140703517588</v>
+      </c>
+      <c r="N14">
+        <v>0.91924924623115589</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0.95225563909774447</v>
+      </c>
+      <c r="C20">
+        <v>0.95095238095238099</v>
+      </c>
+      <c r="D20">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="E20">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="F20">
+        <v>0.92616541353383464</v>
+      </c>
+      <c r="G20">
+        <v>0.92380952380952353</v>
+      </c>
+      <c r="H20">
+        <v>0.92553884711779455</v>
+      </c>
+      <c r="I20">
+        <v>0.92706766917293226</v>
+      </c>
+      <c r="J20">
+        <v>0.92406015037593991</v>
+      </c>
+      <c r="K20">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="L20">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="M20">
+        <f>SUM(C20:L20)/10</f>
+        <v>0.92832080200501255</v>
+      </c>
+      <c r="N20">
+        <v>0.95225563909774447</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0.95208623711328488</v>
+      </c>
+      <c r="C21">
+        <v>0.95048538580102293</v>
+      </c>
+      <c r="D21">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="E21">
+        <v>0.92393537072926302</v>
+      </c>
+      <c r="F21">
+        <v>0.92551538223751306</v>
+      </c>
+      <c r="G21">
+        <v>0.92302649229802003</v>
+      </c>
+      <c r="H21">
+        <v>0.92490875980682408</v>
+      </c>
+      <c r="I21">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="J21">
+        <v>0.92335104317265315</v>
+      </c>
+      <c r="K21">
+        <v>0.92628724865687351</v>
+      </c>
+      <c r="L21">
+        <v>0.92677941508237693</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M23" si="2">SUM(C21:L21)/10</f>
+        <v>0.92771261224357926</v>
+      </c>
+      <c r="N21">
+        <v>0.95208623711328488</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0.95525683935498928</v>
+      </c>
+      <c r="C22">
+        <v>0.95952836578933942</v>
+      </c>
+      <c r="D22">
+        <v>0.93257312893700772</v>
+      </c>
+      <c r="E22">
+        <v>0.93168066876674982</v>
+      </c>
+      <c r="F22">
+        <v>0.93359883267629018</v>
+      </c>
+      <c r="G22">
+        <v>0.93209446415278041</v>
+      </c>
+      <c r="H22">
+        <v>0.93265568048280501</v>
+      </c>
+      <c r="I22">
+        <v>0.93380794610785001</v>
+      </c>
+      <c r="J22">
+        <v>0.93194025447350759</v>
+      </c>
+      <c r="K22">
+        <v>0.93333308133998227</v>
+      </c>
+      <c r="L22">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0.93551250395012919</v>
+      </c>
+      <c r="N22">
+        <v>0.95525683935498928</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0.94912839195979903</v>
+      </c>
+      <c r="C23">
+        <v>0.94180376884422112</v>
+      </c>
+      <c r="D23">
+        <v>0.92054924623115586</v>
+      </c>
+      <c r="E23">
+        <v>0.91668517587939691</v>
+      </c>
+      <c r="F23">
+        <v>0.91794472361809043</v>
+      </c>
+      <c r="G23">
+        <v>0.91452964824120608</v>
+      </c>
+      <c r="H23">
+        <v>0.91764020100502519</v>
+      </c>
+      <c r="I23">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="J23">
+        <v>0.91528165829145736</v>
+      </c>
+      <c r="K23">
+        <v>0.91969396984924612</v>
+      </c>
+      <c r="L23">
+        <v>0.92009120603015093</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.92038663316582914</v>
+      </c>
+      <c r="N23">
+        <v>0.94912839195979903</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0.93107769423558906</v>
+      </c>
+      <c r="C30">
+        <v>0.93837092731829574</v>
+      </c>
+      <c r="D30">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="E30">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="F30">
+        <v>0.92616541353383464</v>
+      </c>
+      <c r="G30">
+        <v>0.92380952380952353</v>
+      </c>
+      <c r="H30">
+        <v>0.92553884711779455</v>
+      </c>
+      <c r="I30">
+        <v>0.92706766917293226</v>
+      </c>
+      <c r="J30">
+        <v>0.92406015037593991</v>
+      </c>
+      <c r="K30">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="L30">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="M30">
+        <f>SUM(C30:L30)/10</f>
+        <v>0.92706265664160414</v>
+      </c>
+      <c r="N30">
+        <v>0.93107769423558906</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0.93058980490150589</v>
+      </c>
+      <c r="C31">
+        <v>0.93800339303660296</v>
+      </c>
+      <c r="D31">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="E31">
+        <v>0.92393537072926302</v>
+      </c>
+      <c r="F31">
+        <v>0.92551538223751306</v>
+      </c>
+      <c r="G31">
+        <v>0.92302649229802003</v>
+      </c>
+      <c r="H31">
+        <v>0.92490875980682408</v>
+      </c>
+      <c r="I31">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="J31">
+        <v>0.92335104317265315</v>
+      </c>
+      <c r="K31">
+        <v>0.92628724865687351</v>
+      </c>
+      <c r="L31">
+        <v>0.92677941508237693</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M33" si="3">SUM(C31:L31)/10</f>
+        <v>0.92646441296713733</v>
+      </c>
+      <c r="N31">
+        <v>0.93058980490150589</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0.93698994079354425</v>
+      </c>
+      <c r="C32">
+        <v>0.94364258736844286</v>
+      </c>
+      <c r="D32">
+        <v>0.93257312893700772</v>
+      </c>
+      <c r="E32">
+        <v>0.93168066876674982</v>
+      </c>
+      <c r="F32">
+        <v>0.93359883267629018</v>
+      </c>
+      <c r="G32">
+        <v>0.93209446415278041</v>
+      </c>
+      <c r="H32">
+        <v>0.93265568048280501</v>
+      </c>
+      <c r="I32">
+        <v>0.93380794610785001</v>
+      </c>
+      <c r="J32">
+        <v>0.93194025447350759</v>
+      </c>
+      <c r="K32">
+        <v>0.93333308133998227</v>
+      </c>
+      <c r="L32">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.93392392610803954</v>
+      </c>
+      <c r="N32">
+        <v>0.93698994079354425</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0.9245123115577889</v>
+      </c>
+      <c r="C33">
+        <v>0.93272487437185925</v>
+      </c>
+      <c r="D33">
+        <v>0.92054924623115586</v>
+      </c>
+      <c r="E33">
+        <v>0.91668517587939691</v>
+      </c>
+      <c r="F33">
+        <v>0.91794472361809043</v>
+      </c>
+      <c r="G33">
+        <v>0.91452964824120608</v>
+      </c>
+      <c r="H33">
+        <v>0.91764020100502519</v>
+      </c>
+      <c r="I33">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="J33">
+        <v>0.91528165829145736</v>
+      </c>
+      <c r="K33">
+        <v>0.91969396984924612</v>
+      </c>
+      <c r="L33">
+        <v>0.92009120603015093</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0.91947874371859295</v>
+      </c>
+      <c r="N33">
+        <v>0.9245123115577889</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0.95819548872180449</v>
+      </c>
+      <c r="C38">
+        <v>0.9535839598997492</v>
+      </c>
+      <c r="D38">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="E38">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="F38">
+        <v>0.92616541353383464</v>
+      </c>
+      <c r="G38">
+        <v>0.92380952380952353</v>
+      </c>
+      <c r="H38">
+        <v>0.92553884711779455</v>
+      </c>
+      <c r="I38">
+        <v>0.92706766917293226</v>
+      </c>
+      <c r="J38">
+        <v>0.92406015037593991</v>
+      </c>
+      <c r="K38">
+        <v>0.92684210526315791</v>
+      </c>
+      <c r="L38">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="M38">
+        <f>SUM(C38:L38)/10</f>
+        <v>0.9285839598997494</v>
+      </c>
+      <c r="N38">
+        <v>0.95819548872180449</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0.95842238824330561</v>
+      </c>
+      <c r="C39">
+        <v>0.95351305164047351</v>
+      </c>
+      <c r="D39">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="E39">
+        <v>0.92393537072926302</v>
+      </c>
+      <c r="F39">
+        <v>0.92551538223751306</v>
+      </c>
+      <c r="G39">
+        <v>0.92302649229802003</v>
+      </c>
+      <c r="H39">
+        <v>0.92490875980682408</v>
+      </c>
+      <c r="I39">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="J39">
+        <v>0.92335104317265315</v>
+      </c>
+      <c r="K39">
+        <v>0.92628724865687351</v>
+      </c>
+      <c r="L39">
+        <v>0.92677941508237693</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M41" si="4">SUM(C39:L39)/10</f>
+        <v>0.92801537882752427</v>
+      </c>
+      <c r="N39">
+        <v>0.95842238824330561</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0.95355279706781415</v>
+      </c>
+      <c r="C40">
+        <v>0.95509994387626695</v>
+      </c>
+      <c r="D40">
+        <v>0.93257312893700772</v>
+      </c>
+      <c r="E40">
+        <v>0.93168066876674982</v>
+      </c>
+      <c r="F40">
+        <v>0.93359883267629018</v>
+      </c>
+      <c r="G40">
+        <v>0.93209446415278041</v>
+      </c>
+      <c r="H40">
+        <v>0.93265568048280501</v>
+      </c>
+      <c r="I40">
+        <v>0.93380794610785001</v>
+      </c>
+      <c r="J40">
+        <v>0.93194025447350759</v>
+      </c>
+      <c r="K40">
+        <v>0.93333308133998227</v>
+      </c>
+      <c r="L40">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>0.935069661758822</v>
+      </c>
+      <c r="N40">
+        <v>0.95355279706781415</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0.96351030150753758</v>
+      </c>
+      <c r="C41">
+        <v>0.9521213567839194</v>
+      </c>
+      <c r="D41">
+        <v>0.92054924623115586</v>
+      </c>
+      <c r="E41">
+        <v>0.91668517587939691</v>
+      </c>
+      <c r="F41">
+        <v>0.91794472361809043</v>
+      </c>
+      <c r="G41">
+        <v>0.91452964824120608</v>
+      </c>
+      <c r="H41">
+        <v>0.91764020100502519</v>
+      </c>
+      <c r="I41">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="J41">
+        <v>0.91528165829145736</v>
+      </c>
+      <c r="K41">
+        <v>0.91969396984924612</v>
+      </c>
+      <c r="L41">
+        <v>0.92009120603015093</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0.92141839195979891</v>
+      </c>
+      <c r="N41">
+        <v>0.96351030150753758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1.280530080848058E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.186231715879435E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.262468981090834E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.2258150231435319E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.224956412622627E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.2611273809933959E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.1847481242499741E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.0800231291436211E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.299638312026484E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.102583148764617E-2</v>
+      </c>
+      <c r="L2">
+        <v>1.208474940092326E-2</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:L2)/10</f>
+        <v>1.2036067168006846E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.280530080848058E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1.2622526407812499E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.205521005784376E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.2934480921513419E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.260612357464898E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.2521313770795191E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.311884202495975E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.21566685784982E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.103746671556915E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.327977728836607E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.125902523118995E-2</v>
+      </c>
+      <c r="L3">
+        <v>1.2318937729365081E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="0">SUM(C3:L3)/10</f>
+        <v>1.2328784589274956E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.2622526407812499E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1.7888024206354679E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.6101576825508671E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.6280650239744579E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.584807909274713E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.639192946533528E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.571537855320124E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.5922682979086649E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.567340655738627E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.690744293312705E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.587435630572467E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.613498783246986E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.6085049078433139E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.7888024206354679E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1.5976409293005381E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.8497537393160561E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.0008374935231471E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.013187101808022E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.97653752516085E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.1467319062533931E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.9135403142946709E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.7839837492888842E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.9961993032172901E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.8017078090007872E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.8817030518841999E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.9364181993747304E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.5976409293005381E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1.550394252578202E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.278195488721804E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.262468981090834E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.2258150231435319E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.224956412622627E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.2611273809933959E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.1847481242499741E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.0800231291436211E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.299638312026484E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.102583148764617E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.208474940092326E-2</v>
+      </c>
+      <c r="M10">
+        <f>SUM(C10:L10)/10</f>
+        <v>1.2128030940849216E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.550394252578202E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1.5972246223144991E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.3339142257347759E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.2934480921513419E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.260612357464898E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.2521313770795191E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.311884202495975E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.21566685784982E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.103746671556915E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.327977728836607E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.125902523118995E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.2318937729365081E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="1">SUM(C11:L11)/10</f>
+        <v>1.2457177809225357E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.5972246223144991E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1.8666603163908651E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.8172788386260082E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.6280650239744579E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.584807909274713E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.639192946533528E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.571537855320124E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.5922682979086649E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.567340655738627E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.690744293312705E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.587435630572467E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.613498783246986E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.6292170234508279E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.8666603163908651E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>2.343643556423991E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.3004222544566199E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.0008374935231471E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.013187101808022E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.97653752516085E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.1467319062533931E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.9135403142946709E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.7839837492888842E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.9961993032172901E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.8017078090007872E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.8817030518841999E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1.9814850508887864E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.343643556423991E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1.0874853934660471E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.0032922983648969E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.262468981090834E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.2258150231435319E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.224956412622627E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.2611273809933959E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.1847481242499741E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.0800231291436211E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.299638312026484E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.102583148764617E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.208474940092326E-2</v>
+      </c>
+      <c r="M18">
+        <f>SUM(C18:L18)/10</f>
+        <v>1.1853127750492309E-2</v>
+      </c>
+      <c r="N18">
+        <v>1.0874853934660471E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1.098143599795182E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.0175730773616691E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.2934480921513419E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.260612357464898E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.2521313770795191E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.311884202495975E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.21566685784982E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.103746671556915E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.327977728836607E-2</v>
+      </c>
+      <c r="K19">
+        <v>1.125902523118995E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.2318937729365081E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M21" si="2">SUM(C19:L19)/10</f>
+        <v>1.2140836660852248E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.098143599795182E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1.306765733871465E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.322949039003222E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.6280650239744579E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.584807909274713E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.639192946533528E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.571537855320124E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.5922682979086649E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.567340655738627E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.690744293312705E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.587435630572467E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.613498783246986E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>1.5797840434885493E-2</v>
+      </c>
+      <c r="N20">
+        <v>1.306765733871465E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1.5919569317124939E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.4698444914667741E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.0008374935231471E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.013187101808022E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.97653752516085E-2</v>
+      </c>
+      <c r="G21">
+        <v>2.1467319062533931E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.9135403142946709E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.7839837492888842E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.9961993032172901E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.8017078090007872E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.8817030518841999E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>1.8984272745898024E-2</v>
+      </c>
+      <c r="N21">
+        <v>1.5919569317124939E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1.2336836565653099E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.177728876908582E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.262468981090834E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.2258150231435319E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.224956412622627E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.2611273809933959E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.1847481242499741E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.0800231291436211E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.299638312026484E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.102583148764617E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.208474940092326E-2</v>
+      </c>
+      <c r="M26">
+        <f>SUM(C26:L26)/10</f>
+        <v>1.2027564329035994E-2</v>
+      </c>
+      <c r="N26">
+        <v>1.2336836565653099E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1.258211144923168E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.190701933509414E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.2934480921513419E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.260612357464898E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.2521313770795191E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.311884202495975E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.21566685784982E-2</v>
+      </c>
+      <c r="I27">
+        <v>1.103746671556915E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.327977728836607E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.125902523118995E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.2318937729365081E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M29" si="3">SUM(C27:L27)/10</f>
+        <v>1.2313965516999995E-2</v>
+      </c>
+      <c r="N27">
+        <v>1.258211144923168E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1.467772151555315E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.6046825548710699E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.6280650239744579E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.584807909274713E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.639192946533528E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.571537855320124E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.5922682979086649E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.567340655738627E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.690744293312705E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.587435630572467E-2</v>
+      </c>
+      <c r="L28">
+        <v>1.613498783246986E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>1.6079573950753344E-2</v>
+      </c>
+      <c r="N28">
+        <v>1.467772151555315E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1.7956612697968909E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.7392653943234509E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.0008374935231471E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.013187101808022E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.97653752516085E-2</v>
+      </c>
+      <c r="G29">
+        <v>2.1467319062533931E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.9135403142946709E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.7839837492888842E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.9961993032172901E-2</v>
+      </c>
+      <c r="K29">
+        <v>1.8017078090007872E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.8817030518841999E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>1.9253693648754698E-2</v>
+      </c>
+      <c r="N29">
+        <v>1.7956612697968909E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>9.0564664910831733E-3</v>
+      </c>
+      <c r="C34">
+        <v>9.9083430864195972E-3</v>
+      </c>
+      <c r="D34">
+        <v>1.262468981090834E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.2258150231435319E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.224956412622627E-2</v>
+      </c>
+      <c r="G34">
+        <v>1.2611273809933959E-2</v>
+      </c>
+      <c r="H34">
+        <v>1.1847481242499741E-2</v>
+      </c>
+      <c r="I34">
+        <v>1.0800231291436211E-2</v>
+      </c>
+      <c r="J34">
+        <v>1.299638312026484E-2</v>
+      </c>
+      <c r="K34">
+        <v>1.102583148764617E-2</v>
+      </c>
+      <c r="L34">
+        <v>1.208474940092326E-2</v>
+      </c>
+      <c r="M34">
+        <f>SUM(C34:L34)/10</f>
+        <v>1.1840669760769371E-2</v>
+      </c>
+      <c r="N34">
+        <v>9.0564664910831733E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>8.9632855535042542E-3</v>
+      </c>
+      <c r="C35">
+        <v>9.9325363868042037E-3</v>
+      </c>
+      <c r="D35">
+        <v>1.2934480921513419E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.260612357464898E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.2521313770795191E-2</v>
+      </c>
+      <c r="G35">
+        <v>1.311884202495975E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.21566685784982E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.103746671556915E-2</v>
+      </c>
+      <c r="J35">
+        <v>1.327977728836607E-2</v>
+      </c>
+      <c r="K35">
+        <v>1.125902523118995E-2</v>
+      </c>
+      <c r="L35">
+        <v>1.2318937729365081E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="4">SUM(C35:L35)/10</f>
+        <v>1.2116517222171001E-2</v>
+      </c>
+      <c r="N35">
+        <v>8.9632855535042542E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1.27603290576079E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.3884745774469151E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.6280650239744579E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.584807909274713E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.639192946533528E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.571537855320124E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.5922682979086649E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.567340655738627E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.690744293312705E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.587435630572467E-2</v>
+      </c>
+      <c r="L36">
+        <v>1.613498783246986E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>1.5863365973329189E-2</v>
+      </c>
+      <c r="N36">
+        <v>1.27603290576079E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>1.2512284963414231E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.3618036795959489E-2</v>
+      </c>
+      <c r="D37">
+        <v>2.0008374935231471E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.013187101808022E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.97653752516085E-2</v>
+      </c>
+      <c r="G37">
+        <v>2.1467319062533931E-2</v>
+      </c>
+      <c r="H37">
+        <v>1.9135403142946709E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.7839837492888842E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.9961993032172901E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.8017078090007872E-2</v>
+      </c>
+      <c r="L37">
+        <v>1.8817030518841999E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>1.8876231934027193E-2</v>
+      </c>
+      <c r="N37">
+        <v>1.2512284963414231E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="Sum" sheetId="3" r:id="rId1"/>
     <sheet name="SUM2" sheetId="4" r:id="rId2"/>
-    <sheet name="mean" sheetId="6" r:id="rId3"/>
-    <sheet name="std" sheetId="5" r:id="rId4"/>
+    <sheet name="END" sheetId="7" r:id="rId3"/>
+    <sheet name="mean" sheetId="6" r:id="rId4"/>
+    <sheet name="std" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="90">
   <si>
     <t>DT</t>
   </si>
@@ -167,18 +168,6 @@
   </si>
   <si>
     <t>DT_RUS_9</t>
-  </si>
-  <si>
-    <t>DT_RUS_AVG</t>
-  </si>
-  <si>
-    <t>LR_</t>
-  </si>
-  <si>
-    <t>xgb</t>
-  </si>
-  <si>
-    <t>xgb_rf</t>
   </si>
   <si>
     <t>LR_RUS_1</t>
@@ -384,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -409,6 +398,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1027,11 +1025,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="489153808"/>
-        <c:axId val="489148320"/>
+        <c:axId val="500115664"/>
+        <c:axId val="679416272"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="489153808"/>
+        <c:axId val="500115664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1072,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489148320"/>
+        <c:crossAx val="679416272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1082,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489148320"/>
+        <c:axId val="679416272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1131,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489153808"/>
+        <c:crossAx val="500115664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,11 +1939,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="489149104"/>
-        <c:axId val="489151848"/>
+        <c:axId val="679414312"/>
+        <c:axId val="679417056"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="489149104"/>
+        <c:axId val="679414312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2000,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489151848"/>
+        <c:crossAx val="679417056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489151848"/>
+        <c:axId val="679417056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2059,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489149104"/>
+        <c:crossAx val="679414312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2324,7 +2322,7 @@
                   <c:v>0.94132999601348033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93801601704269344</c:v>
+                  <c:v>0.94284730092177182</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.94007347123454554</c:v>
@@ -2342,7 +2340,7 @@
                   <c:v>0.93319867345829366</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93650647705613732</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.92114304027014282</c:v>
@@ -2360,10 +2358,10 @@
                   <c:v>0.96083120309250758</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94017392975550484</c:v>
+                  <c:v>0.95794542123677484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96313049303240494</c:v>
+                  <c:v>0.95937730375629771</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.96042179607606382</c:v>
@@ -2378,7 +2376,7 @@
                   <c:v>0.96336529500762724</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94042462966051876</c:v>
+                  <c:v>0.96143711975741475</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.93856694056201728</c:v>
@@ -2396,7 +2394,7 @@
                   <c:v>0.9520464708970473</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9390902209706401</c:v>
+                  <c:v>0.94656397224404509</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.95188570874610412</c:v>
@@ -2548,7 +2546,7 @@
                   <c:v>0.92726817042606502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92597994987468657</c:v>
+                  <c:v>0.9273433583959898</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.92726817042606502</c:v>
@@ -2566,7 +2564,7 @@
                   <c:v>0.91892230576441092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92437844611528808</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.9056390977443608</c:v>
@@ -2584,10 +2582,10 @@
                   <c:v>0.95057644110275685</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92832080200501255</c:v>
+                  <c:v>0.94707056730211436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95225563909774447</c:v>
+                  <c:v>0.94850244982163723</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.94714780274127452</c:v>
@@ -2602,7 +2600,7 @@
                   <c:v>0.95298245614035082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9285839598997494</c:v>
+                  <c:v>0.95238065326633159</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.92951047407093412</c:v>
@@ -2620,7 +2618,7 @@
                   <c:v>0.93954887218045102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.92706265664160414</c:v>
+                  <c:v>0.934227135678392</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.93954887218045102</c:v>
@@ -2772,7 +2770,7 @@
                   <c:v>0.91320634483864971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9139438827066797</c:v>
+                  <c:v>0.91183941587020778</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.9144628696175845</c:v>
@@ -2790,7 +2788,7 @@
                   <c:v>0.90464593807052818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91225041517443883</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.89013515521857878</c:v>
@@ -2808,10 +2806,10 @@
                   <c:v>0.94032167911300613</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91646767425452025</c:v>
+                  <c:v>0.93619571336745389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94138078516308399</c:v>
+                  <c:v>0.93762759588697675</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.93387380940648523</c:v>
@@ -2826,7 +2824,7 @@
                   <c:v>0.9425996172730744</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91674329013898004</c:v>
+                  <c:v>0.94332418677524843</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.92045400757985096</c:v>
@@ -2844,7 +2842,7 @@
                   <c:v>0.92705127346385474</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91503509231256819</c:v>
+                  <c:v>0.9218902991127389</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.92721203561479792</c:v>
@@ -2877,11 +2875,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="489150672"/>
-        <c:axId val="489154200"/>
+        <c:axId val="679414704"/>
+        <c:axId val="679415096"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="489150672"/>
+        <c:axId val="679414704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +2936,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489154200"/>
+        <c:crossAx val="679415096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2946,7 +2944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489154200"/>
+        <c:axId val="679415096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,7 +2995,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489150672"/>
+        <c:crossAx val="679414704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3043,6 +3041,1149 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>END!$B$2:$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_NM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>END!$B$15:$AE$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.93492596850992638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93475700132301598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94642214010591086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94132999601348033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93801601704269344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93027397248767851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92177918610961929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92361728876074234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92843726533823323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93319867345829366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92439885383193021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92114304027014282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95278980535510427</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95939319541327084</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96209775854100743</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96083120309250758</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95975590308104397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96313049303240494</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96042179607606382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96448784160753553</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96550688430367615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96336529500762724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96396798204478995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96725195521288765</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94350949465273615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94735550941457469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95346559761956939</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9520464708970473</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94994474373168736</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94341453080124216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>END!$B$9:$AE$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>1.423075867525074E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3127928641311499E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3389558652276709E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4061825587415261E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2036067168006846E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.280530080848058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5308047208955121E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.466992033968988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3374608696629349E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.427636769388275E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3148227265514081E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.550394252578202E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.264850254317851E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.137314528795768E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.1295753528476169E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0254761989750691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.0775953206357276E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.0874853934660471E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.327399333478925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>9.851250128838869E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.092041813826263E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.0382838867276411E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.0471741443286152E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>9.0564664910831733E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1.3999020581802061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1.2593604652669959E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1.1886650251148431E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.249759871659631E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.2383340222915526E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.2336836565653099E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>END!$B$9:$AE$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>1.423075867525074E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3127928641311499E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3389558652276709E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4061825587415261E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2036067168006846E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.280530080848058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5308047208955121E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.466992033968988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3374608696629349E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.427636769388275E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3148227265514081E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.550394252578202E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.264850254317851E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.137314528795768E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.1295753528476169E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0254761989750691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.0775953206357276E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.0874853934660471E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.327399333478925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>9.851250128838869E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.092041813826263E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.0382838867276411E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.0471741443286152E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>9.0564664910831733E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1.3999020581802061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1.2593604652669959E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1.1886650251148431E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.249759871659631E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.2383340222915526E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.2336836565653099E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>END!$B$2:$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_NM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>END!$B$16:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.92069520983467568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92162907268170446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9330325814536341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92726817042606502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92597994987468657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91746867167919799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90647113890066422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9089473684210525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91506265664160391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91892230576441092</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91125062656641609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9056390977443608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94014130281192576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94802005012531321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95080200501253131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95057644110275685</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9489799498746867</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95225563909774447</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94714780274127452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95463659147869662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95458646616541354</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95298245614035082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95349624060150384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95819548872180449</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92951047407093412</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93476190476190468</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94157894736842096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93954887218045102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93756140350877182</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93107769423558906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>END!$B$2:$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LR_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LR_GAN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LR_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LR_RUS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR_NM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DT_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DT_GAN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DT_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DT_RUS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DT_NM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF_NM</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XGB_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XGB_GAN</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>XGB_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>XGB_RUS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>XGB_NM</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>XGB_RF</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>XGB_RF_BrdSMOTE</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>XGB_RF_GAN</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>XGB_RF_SMOTE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>XGB_RF_RUS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>XGB_RF_NM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>END!$B$17:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.90646445115942498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90850114404039295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91964302280135735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91320634483864971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9139438827066797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90466337087071746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89116309169170915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89427744808136267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90168804794497459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90464593807052818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89810239930090197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89013515521857878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92749280026874725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93664690483735558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9395062514840552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94032167911300613</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93820399666832943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94138078516308399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93387380940648523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9447853413498577</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94366604802715093</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9425996172730744</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94302449915821773</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94913902223072133</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9155114534891321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92216830010923467</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92969229711727253</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92705127346385474</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92517806328585628</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91874085766993596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="679420976"/>
+        <c:axId val="679421368"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="679420976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679421368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679421368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679420976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3127,6 +4268,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4714,6 +5895,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4814,6 +6511,202 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>473074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21616</cdr:x>
+      <cdr:y>0.07669</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21616</cdr:x>
+      <cdr:y>0.85486</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Łącznik prosty 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3787776" y="473076"/>
+          <a:ext cx="0" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40968</cdr:x>
+      <cdr:y>0.07566</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41076</cdr:x>
+      <cdr:y>0.85383</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Łącznik prosty 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7178676" y="466726"/>
+          <a:ext cx="19050" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60428</cdr:x>
+      <cdr:y>0.07669</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60464</cdr:x>
+      <cdr:y>0.85692</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Łącznik prosty 6"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="10588626" y="473076"/>
+          <a:ext cx="6350" cy="4813300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79779</cdr:x>
+      <cdr:y>0.07874</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7996</cdr:x>
+      <cdr:y>0.85589</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="Łącznik prosty 9"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="13979526" y="485776"/>
+          <a:ext cx="31750" cy="4794250"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5106,7 +6999,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA49" sqref="AA49"/>
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6416,7 +8309,7 @@
   <dimension ref="A1:AE61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6536,8 +8429,8 @@
         <v>0.92726817042606502</v>
       </c>
       <c r="F2" s="7">
-        <f>mean!M11</f>
-        <v>0.92597994987468657</v>
+        <f>mean!L11</f>
+        <v>0.9273433583959898</v>
       </c>
       <c r="G2" s="7">
         <v>0.91746867167919799</v>
@@ -6554,9 +8447,9 @@
       <c r="K2" s="7">
         <v>0.91892230576441092</v>
       </c>
-      <c r="L2" s="10">
-        <f>mean!M2</f>
-        <v>0.92437844611528808</v>
+      <c r="L2" s="10" t="str">
+        <f>mean!L2</f>
+        <v>DT_RUS_9</v>
       </c>
       <c r="M2">
         <v>0.9056390977443608</v>
@@ -6574,8 +8467,8 @@
         <v>0.95057644110275685</v>
       </c>
       <c r="R2" s="10">
-        <f>mean!M20</f>
-        <v>0.92832080200501255</v>
+        <f>mean!L20</f>
+        <v>0.94707056730211436</v>
       </c>
       <c r="S2">
         <v>0.95225563909774447</v>
@@ -6593,8 +8486,8 @@
         <v>0.95298245614035082</v>
       </c>
       <c r="X2" s="10">
-        <f>mean!M38</f>
-        <v>0.9285839598997494</v>
+        <f>mean!L38</f>
+        <v>0.95238065326633159</v>
       </c>
       <c r="Y2">
         <v>0.95819548872180449</v>
@@ -6612,8 +8505,8 @@
         <v>0.93954887218045102</v>
       </c>
       <c r="AD2" s="10">
-        <f>mean!M30</f>
-        <v>0.92706265664160414</v>
+        <f>mean!L30</f>
+        <v>0.934227135678392</v>
       </c>
       <c r="AE2">
         <v>0.93107769423558906</v>
@@ -6977,7 +8870,7 @@
       </c>
       <c r="F8" s="7">
         <f>std!M2</f>
-        <v>1.2036067168006846E-2</v>
+        <v>1.550394252578202E-2</v>
       </c>
       <c r="G8">
         <v>1.280530080848058E-2</v>
@@ -6996,7 +8889,7 @@
       </c>
       <c r="L8" s="7">
         <f>std!M10</f>
-        <v>1.2128030940849216E-2</v>
+        <v>1.280530080848058E-2</v>
       </c>
       <c r="M8">
         <v>1.550394252578202E-2</v>
@@ -7015,7 +8908,7 @@
       </c>
       <c r="R8" s="7">
         <f>std!M18</f>
-        <v>1.1853127750492309E-2</v>
+        <v>1.0874853934660471E-2</v>
       </c>
       <c r="S8">
         <v>1.0874853934660471E-2</v>
@@ -7034,7 +8927,7 @@
       </c>
       <c r="X8" s="7">
         <f>std!M34</f>
-        <v>1.1840669760769371E-2</v>
+        <v>9.0564664910831733E-3</v>
       </c>
       <c r="Y8">
         <v>9.0564664910831733E-3</v>
@@ -7053,7 +8946,7 @@
       </c>
       <c r="AD8" s="10">
         <f>std!M26</f>
-        <v>1.2027564329035994E-2</v>
+        <v>1.2336836565653099E-2</v>
       </c>
       <c r="AE8">
         <v>1.2336836565653099E-2</v>
@@ -7336,7 +9229,7 @@
       </c>
       <c r="F14" s="7">
         <f>F15+F8</f>
-        <v>0.93801601704269344</v>
+        <v>0.94284730092177182</v>
       </c>
       <c r="G14" s="7">
         <f>G15+G8</f>
@@ -7358,9 +9251,9 @@
         <f t="shared" si="0"/>
         <v>0.93319867345829366</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>0.93650647705613732</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
@@ -7384,11 +9277,11 @@
       </c>
       <c r="R14" s="7">
         <f t="shared" si="0"/>
-        <v>0.94017392975550484</v>
+        <v>0.95794542123677484</v>
       </c>
       <c r="S14" s="7">
         <f t="shared" si="0"/>
-        <v>0.96313049303240494</v>
+        <v>0.95937730375629771</v>
       </c>
       <c r="T14" s="7">
         <f t="shared" si="0"/>
@@ -7408,7 +9301,7 @@
       </c>
       <c r="X14" s="7">
         <f t="shared" si="0"/>
-        <v>0.94042462966051876</v>
+        <v>0.96143711975741475</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="0"/>
@@ -7432,7 +9325,7 @@
       </c>
       <c r="AD14" s="7">
         <f>AD15+AD8</f>
-        <v>0.9390902209706401</v>
+        <v>0.94656397224404509</v>
       </c>
       <c r="AE14" s="7">
         <f>AE15+AE8</f>
@@ -7456,8 +9349,8 @@
         <v>0.92726817042606502</v>
       </c>
       <c r="F15" s="7">
-        <f>mean!M11</f>
-        <v>0.92597994987468657</v>
+        <f>mean!L11</f>
+        <v>0.9273433583959898</v>
       </c>
       <c r="G15" s="7">
         <v>0.92726817042606502</v>
@@ -7474,9 +9367,9 @@
       <c r="K15" s="7">
         <v>0.91892230576441092</v>
       </c>
-      <c r="L15" s="7">
-        <f>mean!M2</f>
-        <v>0.92437844611528808</v>
+      <c r="L15" s="7" t="str">
+        <f>mean!L2</f>
+        <v>DT_RUS_9</v>
       </c>
       <c r="M15" s="7">
         <f>M2</f>
@@ -7495,12 +9388,12 @@
         <v>0.95057644110275685</v>
       </c>
       <c r="R15" s="7">
+        <f>mean!L20</f>
+        <v>0.94707056730211436</v>
+      </c>
+      <c r="S15" s="7">
         <f>mean!M20</f>
-        <v>0.92832080200501255</v>
-      </c>
-      <c r="S15" s="7">
-        <f>mean!N20</f>
-        <v>0.95225563909774447</v>
+        <v>0.94850244982163723</v>
       </c>
       <c r="T15" s="7">
         <v>0.94714780274127452</v>
@@ -7515,8 +9408,8 @@
         <v>0.95298245614035082</v>
       </c>
       <c r="X15" s="7">
-        <f>mean!M38</f>
-        <v>0.9285839598997494</v>
+        <f>mean!L38</f>
+        <v>0.95238065326633159</v>
       </c>
       <c r="Y15" s="7">
         <v>0.92951047407093412</v>
@@ -7534,8 +9427,8 @@
         <v>0.93954887218045102</v>
       </c>
       <c r="AD15" s="7">
-        <f>mean!M30</f>
-        <v>0.92706265664160414</v>
+        <f>mean!L30</f>
+        <v>0.934227135678392</v>
       </c>
       <c r="AE15" s="7">
         <v>0.93954887218045102</v>
@@ -7563,7 +9456,7 @@
       </c>
       <c r="F16" s="7">
         <f>F15-F8</f>
-        <v>0.9139438827066797</v>
+        <v>0.91183941587020778</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
@@ -7585,9 +9478,9 @@
         <f t="shared" si="1"/>
         <v>0.90464593807052818</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>0.91225041517443883</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="1"/>
@@ -7611,11 +9504,11 @@
       </c>
       <c r="R16" s="7">
         <f t="shared" si="1"/>
-        <v>0.91646767425452025</v>
+        <v>0.93619571336745389</v>
       </c>
       <c r="S16" s="7">
         <f t="shared" si="1"/>
-        <v>0.94138078516308399</v>
+        <v>0.93762759588697675</v>
       </c>
       <c r="T16" s="7">
         <f t="shared" si="1"/>
@@ -7635,7 +9528,7 @@
       </c>
       <c r="X16" s="7">
         <f t="shared" si="1"/>
-        <v>0.91674329013898004</v>
+        <v>0.94332418677524843</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
@@ -7659,7 +9552,7 @@
       </c>
       <c r="AD16" s="7">
         <f t="shared" si="1"/>
-        <v>0.91503509231256819</v>
+        <v>0.9218902991127389</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" si="1"/>
@@ -7799,310 +9692,1673 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A2:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.92069520983467568</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.92162907268170446</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.9330325814536341</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.92726817042606502</v>
+      </c>
+      <c r="F3" s="7">
+        <f>mean!$M$11</f>
+        <v>0.92597994987468657</v>
+      </c>
+      <c r="G3">
+        <v>0.91746867167919799</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.90647113890066422</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.9089473684210525</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.91506265664160391</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.91892230576441092</v>
+      </c>
+      <c r="L3" s="10">
+        <f>mean!M3</f>
+        <v>0.91125062656641609</v>
+      </c>
+      <c r="M3">
+        <v>0.9056390977443608</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.94014130281192576</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.94802005012531321</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.95080200501253131</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.95057644110275685</v>
+      </c>
+      <c r="R3" s="10">
+        <f>mean!M19</f>
+        <v>0.9489799498746867</v>
+      </c>
+      <c r="S3">
+        <v>0.95225563909774447</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.94714780274127452</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0.95463659147869662</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.95458646616541354</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0.95298245614035082</v>
+      </c>
+      <c r="X3" s="10">
+        <f>mean!M35</f>
+        <v>0.95349624060150384</v>
+      </c>
+      <c r="Y3">
+        <v>0.95819548872180449</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0.92951047407093412</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0.93476190476190468</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0.94157894736842096</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.93954887218045102</v>
+      </c>
+      <c r="AD3" s="7">
+        <f>mean!M27</f>
+        <v>0.93756140350877182</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0.93107769423558906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.90113623731338721</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.92145701936136648</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.93221161362916438</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.92682745938086131</v>
+      </c>
+      <c r="F4" s="7">
+        <f>mean!M12</f>
+        <v>0.92537565897090313</v>
+      </c>
+      <c r="G4">
+        <v>0.91763369640941661</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.88173298997967076</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.90823896377687063</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.91361419088238138</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.91812800944837025</v>
+      </c>
+      <c r="L4" s="10">
+        <f>mean!M4</f>
+        <v>0.909808062048722</v>
+      </c>
+      <c r="M4">
+        <v>0.90449735182515323</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.92488603377171463</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.94762080255490777</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.95006766056340952</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.95017780192127743</v>
+      </c>
+      <c r="R4" s="10">
+        <f>mean!M20</f>
+        <v>0.94850244982163723</v>
+      </c>
+      <c r="S4">
+        <v>0.95208623711328488</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.93475146953772703</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0.95465648424647032</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0.95437579002777484</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.95288451957500631</v>
+      </c>
+      <c r="X4" s="10">
+        <f>mean!M36</f>
+        <v>0.95345581866302653</v>
+      </c>
+      <c r="Y4">
+        <v>0.95842238824330561</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0.91184741203702979</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0.93422845206211746</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0.94092344525717253</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0.9391582929771094</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>mean!M28</f>
+        <v>0.93726140061070173</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0.93058980490150589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.91618666942959803</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.92324988147918052</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.94305380789337845</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.93209192203863511</v>
+      </c>
+      <c r="F5" s="7">
+        <f>mean!M13</f>
+        <v>0.93281734625361956</v>
+      </c>
+      <c r="G5">
+        <v>0.91630351185382464</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.90997136473320228</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.91556986578716348</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.92971714982003217</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.92708111181641073</v>
+      </c>
+      <c r="L5" s="10">
+        <f>mean!M5</f>
+        <v>0.924819739076159</v>
+      </c>
+      <c r="M5">
+        <v>0.91538438156248436</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.94591827501944958</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.95430837672687385</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.96359571580724179</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.95759222010519407</v>
+      </c>
+      <c r="R5" s="10">
+        <f>mean!M21</f>
+        <v>0.95738850061506575</v>
+      </c>
+      <c r="S5">
+        <v>0.95525683935498928</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.94063002515926175</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.95431497626030481</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0.9586335751807219</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0.95461714802569542</v>
+      </c>
+      <c r="X5" s="10">
+        <f>mean!M37</f>
+        <v>0.95440054843153832</v>
+      </c>
+      <c r="Y5">
+        <v>0.95355279706781415</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0.92945485316378385</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.9414923791614862</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.95100639721482305</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.94501111915567193</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>mean!M29</f>
+        <v>0.94189384310264879</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.93698994079354425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.8871120279276421</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.91999623115577889</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.92190150753768829</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.92190402010050232</v>
+      </c>
+      <c r="F6" s="7">
+        <f>mean!M14</f>
+        <v>0.91841140703517588</v>
+      </c>
+      <c r="G6">
+        <v>0.91924924623115589</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.85652649952396065</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.90145477386934669</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.90977864321608037</v>
+      </c>
+      <c r="L6" s="10">
+        <f>mean!M6</f>
+        <v>0.89578937185929663</v>
+      </c>
+      <c r="M6">
+        <v>0.89429346733668336</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.90532370675975882</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.94125402010050241</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.93714095477386938</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0.94311105527638173</v>
+      </c>
+      <c r="R6" s="10">
+        <f>mean!M22</f>
+        <v>0.94000444723618082</v>
+      </c>
+      <c r="S6">
+        <v>0.94912839195979903</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.92942716597905406</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0.95518894472361804</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0.95032261306532662</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0.95132613065326632</v>
+      </c>
+      <c r="X6" s="10">
+        <f>mean!M38</f>
+        <v>0.95272924623115574</v>
+      </c>
+      <c r="Y6">
+        <v>0.96351030150753758</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0.89563154554109814</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0.92737035175879401</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0.93127613065326631</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.93363618090452249</v>
+      </c>
+      <c r="AD6" s="7">
+        <f>mean!M30</f>
+        <v>0.93295444723618071</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.9245123115577889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>F2</f>
+        <v>LR_RUS</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>L2</f>
+        <v>DT_RUS</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f>R2</f>
+        <v>RF_RUS</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f>X2</f>
+        <v>XGB_RUS</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="11" t="str">
+        <f>AD2</f>
+        <v>XGB_RF_RUS</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.423075867525074E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.3127928641311499E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.3389558652276709E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.4061825587415261E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <f>std!L10</f>
+        <v>1.2036067168006846E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.280530080848058E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.5308047208955121E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.466992033968988E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.3374608696629349E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.427636769388275E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <f>std!L2</f>
+        <v>1.3148227265514081E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.550394252578202E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.264850254317851E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1.137314528795768E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.1295753528476169E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1.0254761989750691E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f>std!L18</f>
+        <v>1.0775953206357276E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.0874853934660471E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1.327399333478925E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <v>9.851250128838869E-3</v>
+      </c>
+      <c r="V9" s="7">
+        <v>1.092041813826263E-2</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1.0382838867276411E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f>std!L34</f>
+        <v>1.0471741443286152E-2</v>
+      </c>
+      <c r="Y9">
+        <v>9.0564664910831733E-3</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>1.3999020581802061E-2</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>1.2593604652669959E-2</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1.1886650251148431E-2</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1.249759871659631E-2</v>
+      </c>
+      <c r="AD9" s="10">
+        <f>std!L26</f>
+        <v>1.2383340222915526E-2</v>
+      </c>
+      <c r="AE9">
+        <v>1.2336836565653099E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.7987868750199421E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.338543933721611E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.3850658888659211E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.441998852872188E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <f>std!L11</f>
+        <v>1.2328784589274956E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.2622526407812499E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.0042895550446561E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.478337536660655E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.3624189574353679E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.461201816089038E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <f>std!L3</f>
+        <v>1.3578803098517505E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.5972246223144991E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.6297511422786619E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1.1669554166518549E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1.168009117791617E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1.046180017350337E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f>std!L19</f>
+        <v>1.0929484674174688E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.098143599795182E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1.6635315677837801E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <v>9.8524952924680716E-3</v>
+      </c>
+      <c r="V10" s="7">
+        <v>1.100413455325247E-2</v>
+      </c>
+      <c r="W10" s="7">
+        <v>1.0477899056576839E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f>std!L35</f>
+        <v>1.0494380628156901E-2</v>
+      </c>
+      <c r="Y10">
+        <v>8.9632855535042542E-3</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>1.8162758178494321E-2</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>1.288920620969662E-2</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>1.2218533687204309E-2</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1.2680375939647119E-2</v>
+      </c>
+      <c r="AD10" s="10">
+        <f>std!L27</f>
+        <v>1.2472893214695073E-2</v>
+      </c>
+      <c r="AE10">
+        <v>1.258211144923168E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.2672138262737129E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.5847059329521591E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.450051269608485E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.58723961661709E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <f>std!L12</f>
+        <v>1.6085049078433139E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.7888024206354679E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.836858430781072E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.972267689262281E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.0144853107083471E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.829801255893182E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <f>std!L4</f>
+        <v>1.8744096422818907E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.8666603163908651E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1.8888919372371991E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1.269533672126035E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.2367577079911389E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1.311863561243049E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f>std!L20</f>
+        <v>1.4344210387336392E-2</v>
+      </c>
+      <c r="S11">
+        <v>1.306765733871465E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>2.0317308765703632E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1.3303734459659379E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1.318655377013439E-2</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1.2537799086311221E-2</v>
+      </c>
+      <c r="X11" s="7">
+        <f>std!L36</f>
+        <v>1.4410810984201727E-2</v>
+      </c>
+      <c r="Y11">
+        <v>1.27603290576079E-2</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>2.1839583174588919E-2</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>1.479328828426439E-2</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1.326095756499711E-2</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1.5214646200732511E-2</v>
+      </c>
+      <c r="AD11" s="10">
+        <f>std!L28</f>
+        <v>1.6654080732633907E-2</v>
+      </c>
+      <c r="AE11">
+        <v>1.467772151555315E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.5047613423763989E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.0157378820135859E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.0865844061474421E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.0468537897478489E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <f>std!L13</f>
+        <v>1.9364181993747304E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.5976409293005381E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3.4620667164265373E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2.105879502506925E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2.1737383735638761E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2.2150179398829219E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <f>std!L5</f>
+        <v>2.1632304630147418E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.343643556423991E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2.6055922121323221E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1.802738346431141E-2</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1.8181903233692651E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1.638857895960303E-2</v>
+      </c>
+      <c r="R12" s="7">
+        <f>std!L21</f>
+        <v>1.5665655269964864E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.5919569317124939E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>2.4151659007285432E-2</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1.408335162201348E-2</v>
+      </c>
+      <c r="V12" s="7">
+        <v>1.502844777645489E-2</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1.492567064831297E-2</v>
+      </c>
+      <c r="X12" s="7">
+        <f>std!L37</f>
+        <v>1.4691939140760168E-2</v>
+      </c>
+      <c r="Y12">
+        <v>1.2512284963414231E-2</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>2.8886322612524981E-2</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1.9671390769533972E-2</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>1.8215268148586379E-2</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1.830295833688422E-2</v>
+      </c>
+      <c r="AD12" s="10">
+        <f>std!L29</f>
+        <v>1.7124968961629832E-2</v>
+      </c>
+      <c r="AE12">
+        <v>1.7956612697968909E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7">
+        <f>B16+B9</f>
+        <v>0.93492596850992638</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:AB15" si="0">C16+C9</f>
+        <v>0.93475700132301598</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94642214010591086</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94132999601348033</v>
+      </c>
+      <c r="F15" s="7">
+        <f>F16+F9</f>
+        <v>0.93801601704269344</v>
+      </c>
+      <c r="G15" s="7">
+        <f>G16+G9</f>
+        <v>0.93027397248767851</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92177918610961929</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92361728876074234</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92843726533823323</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93319867345829366</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92439885383193021</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92114304027014282</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95278980535510427</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95939319541327084</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96209775854100743</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96083120309250758</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95975590308104397</v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96313049303240494</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96042179607606382</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96448784160753553</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96550688430367615</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96336529500762724</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96396798204478995</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96725195521288765</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94350949465273615</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94735550941457469</v>
+      </c>
+      <c r="AB15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95346559761956939</v>
+      </c>
+      <c r="AC15" s="7">
+        <f>AC16+AC9</f>
+        <v>0.9520464708970473</v>
+      </c>
+      <c r="AD15" s="7">
+        <f>AD16+AD9</f>
+        <v>0.94994474373168736</v>
+      </c>
+      <c r="AE15" s="7">
+        <f>AE16+AE9</f>
+        <v>0.94341453080124216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.92069520983467568</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.92162907268170446</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.9330325814536341</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.92726817042606502</v>
+      </c>
+      <c r="F16" s="7">
+        <f>F3</f>
+        <v>0.92597994987468657</v>
+      </c>
+      <c r="G16">
+        <v>0.91746867167919799</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.90647113890066422</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.9089473684210525</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.91506265664160391</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.91892230576441092</v>
+      </c>
+      <c r="L16" s="10">
+        <f>L3</f>
+        <v>0.91125062656641609</v>
+      </c>
+      <c r="M16">
+        <v>0.9056390977443608</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.94014130281192576</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.94802005012531321</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.95080200501253131</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.95057644110275685</v>
+      </c>
+      <c r="R16" s="10">
+        <f>R3</f>
+        <v>0.9489799498746867</v>
+      </c>
+      <c r="S16">
+        <v>0.95225563909774447</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0.94714780274127452</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0.95463659147869662</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0.95458646616541354</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0.95298245614035082</v>
+      </c>
+      <c r="X16" s="10">
+        <f>X3</f>
+        <v>0.95349624060150384</v>
+      </c>
+      <c r="Y16">
+        <v>0.95819548872180449</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0.92951047407093412</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0.93476190476190468</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0.94157894736842096</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0.93954887218045102</v>
+      </c>
+      <c r="AD16" s="7">
+        <f>AD3</f>
+        <v>0.93756140350877182</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0.93107769423558906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7">
+        <f>B16-B9</f>
+        <v>0.90646445115942498</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" ref="C17:AE17" si="1">C16-C9</f>
+        <v>0.90850114404039295</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91964302280135735</v>
+      </c>
+      <c r="E17" s="7">
+        <f>E16-E9</f>
+        <v>0.91320634483864971</v>
+      </c>
+      <c r="F17" s="7">
+        <f>F16-F9</f>
+        <v>0.9139438827066797</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90466337087071746</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89116309169170915</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89427744808136267</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90168804794497459</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90464593807052818</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89810239930090197</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89013515521857878</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92749280026874725</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93664690483735558</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9395062514840552</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94032167911300613</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93820399666832943</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94138078516308399</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93387380940648523</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9447853413498577</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94366604802715093</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9425996172730744</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94302449915821773</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94913902223072133</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9155114534891321</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92216830010923467</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92969229711727253</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92705127346385474</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92517806328585628</v>
+      </c>
+      <c r="AE17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91874085766993596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="N35:N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="C3">
+        <v>0.91152882205513786</v>
+      </c>
+      <c r="D3">
+        <v>0.90709273182957373</v>
+      </c>
+      <c r="E3">
+        <v>0.91147869674185455</v>
+      </c>
+      <c r="F3">
+        <v>0.91243107769423548</v>
+      </c>
+      <c r="G3">
+        <v>0.90974937343358386</v>
+      </c>
+      <c r="H3">
+        <v>0.90902255639097751</v>
+      </c>
+      <c r="I3">
+        <v>0.91380952380952385</v>
+      </c>
+      <c r="J3">
+        <v>0.91030075187969894</v>
+      </c>
+      <c r="K3">
+        <v>0.91268170426065154</v>
+      </c>
+      <c r="L3">
+        <v>0.91441102756892234</v>
+      </c>
+      <c r="M3">
+        <f>SUM(C3:L3)/10</f>
+        <v>0.91125062656641609</v>
+      </c>
+      <c r="N3">
         <v>0.9056390977443608</v>
       </c>
-      <c r="C2">
-        <v>0.91152882205513786</v>
-      </c>
-      <c r="D2">
-        <v>0.92684210526315791</v>
-      </c>
-      <c r="E2">
-        <v>0.9245864661654134</v>
-      </c>
-      <c r="F2">
-        <v>0.92616541353383464</v>
-      </c>
-      <c r="G2">
-        <v>0.92380952380952353</v>
-      </c>
-      <c r="H2">
-        <v>0.92553884711779455</v>
-      </c>
-      <c r="I2">
-        <v>0.92706766917293226</v>
-      </c>
-      <c r="J2">
-        <v>0.92406015037593991</v>
-      </c>
-      <c r="K2">
-        <v>0.92684210526315791</v>
-      </c>
-      <c r="L2">
-        <v>0.9273433583959898</v>
-      </c>
-      <c r="M2">
-        <f>SUM(C2:L2)/10</f>
-        <v>0.92437844611528808</v>
-      </c>
-      <c r="N2">
-        <v>0.9056390977443608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="C4">
+        <v>0.91013422592407256</v>
+      </c>
+      <c r="D4">
+        <v>0.9052302145430644</v>
+      </c>
+      <c r="E4">
+        <v>0.90971835801189416</v>
+      </c>
+      <c r="F4">
+        <v>0.91052205990260471</v>
+      </c>
+      <c r="G4">
+        <v>0.90826317828814529</v>
+      </c>
+      <c r="H4">
+        <v>0.907626842883415</v>
+      </c>
+      <c r="I4">
+        <v>0.91265010090708865</v>
+      </c>
+      <c r="J4">
+        <v>0.9091402622121143</v>
+      </c>
+      <c r="K4">
+        <v>0.91126414671352629</v>
+      </c>
+      <c r="L4">
+        <v>0.91353123110129619</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M38" si="0">SUM(C4:L4)/10</f>
+        <v>0.909808062048722</v>
+      </c>
+      <c r="N4">
         <v>0.90449735182515323</v>
       </c>
-      <c r="C3">
-        <v>0.91013422592407256</v>
-      </c>
-      <c r="D3">
-        <v>0.9263388007278589</v>
-      </c>
-      <c r="E3">
-        <v>0.92393537072926302</v>
-      </c>
-      <c r="F3">
-        <v>0.92551538223751306</v>
-      </c>
-      <c r="G3">
-        <v>0.92302649229802003</v>
-      </c>
-      <c r="H3">
-        <v>0.92490875980682408</v>
-      </c>
-      <c r="I3">
-        <v>0.9264982239233861</v>
-      </c>
-      <c r="J3">
-        <v>0.92335104317265315</v>
-      </c>
-      <c r="K3">
-        <v>0.92628724865687351</v>
-      </c>
-      <c r="L3">
-        <v>0.92677941508237693</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M5" si="0">SUM(C3:L3)/10</f>
-        <v>0.92367749625588425</v>
-      </c>
-      <c r="N3">
-        <v>0.90449735182515323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0.91538438156248436</v>
-      </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.92447008973769096</v>
       </c>
-      <c r="D4">
-        <v>0.93257312893700772</v>
-      </c>
-      <c r="E4">
-        <v>0.93168066876674982</v>
-      </c>
-      <c r="F4">
-        <v>0.93359883267629018</v>
-      </c>
-      <c r="G4">
-        <v>0.93209446415278041</v>
-      </c>
-      <c r="H4">
-        <v>0.93265568048280501</v>
-      </c>
-      <c r="I4">
-        <v>0.93380794610785001</v>
-      </c>
-      <c r="J4">
-        <v>0.93194025447350759</v>
-      </c>
-      <c r="K4">
-        <v>0.93333308133998227</v>
-      </c>
-      <c r="L4">
-        <v>0.9339126167749785</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.93200667634496437</v>
-      </c>
-      <c r="N4">
-        <v>0.91538438156248436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.89429346733668336</v>
-      </c>
-      <c r="C5">
-        <v>0.89678266331658296</v>
-      </c>
       <c r="D5">
-        <v>0.92054924623115586</v>
+        <v>0.92350156186790844</v>
       </c>
       <c r="E5">
-        <v>0.91668517587939691</v>
+        <v>0.92798704158873035</v>
       </c>
       <c r="F5">
-        <v>0.91794472361809043</v>
+        <v>0.93069215099507441</v>
       </c>
       <c r="G5">
-        <v>0.91452964824120608</v>
+        <v>0.9233403282188084</v>
       </c>
       <c r="H5">
-        <v>0.91764020100502519</v>
+        <v>0.92154112340759597</v>
       </c>
       <c r="I5">
-        <v>0.9196467336683416</v>
+        <v>0.92528087212342125</v>
       </c>
       <c r="J5">
-        <v>0.91528165829145736</v>
+        <v>0.92166072535241272</v>
       </c>
       <c r="K5">
-        <v>0.91969396984924612</v>
+        <v>0.92647490522333686</v>
       </c>
       <c r="L5">
-        <v>0.92009120603015093</v>
+        <v>0.9232485922466096</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.9158845226130653</v>
+        <v>0.924819739076159</v>
       </c>
       <c r="N5">
+        <v>0.91538438156248436</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0.89678266331658296</v>
+      </c>
+      <c r="D6">
+        <v>0.88826482412060315</v>
+      </c>
+      <c r="E6">
+        <v>0.89267487437185933</v>
+      </c>
+      <c r="F6">
+        <v>0.89177613065326644</v>
+      </c>
+      <c r="G6">
+        <v>0.89412738693467331</v>
+      </c>
+      <c r="H6">
+        <v>0.89462738693467347</v>
+      </c>
+      <c r="I6">
+        <v>0.90084723618090445</v>
+      </c>
+      <c r="J6">
+        <v>0.89738994974874386</v>
+      </c>
+      <c r="K6">
+        <v>0.89689472361809064</v>
+      </c>
+      <c r="L6">
+        <v>0.90450854271356784</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.89578937185929663</v>
+      </c>
+      <c r="N6">
         <v>0.89429346733668336</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
+      <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C8">
-        <f>SUM(C2:L2)/10</f>
-        <v>0.92437844611528808</v>
-      </c>
-      <c r="E8">
-        <f>SUM(C11:L11)/10</f>
-        <v>0.92597994987468657</v>
-      </c>
-      <c r="G8">
-        <f>SUM(C20:L20)/10</f>
-        <v>0.92832080200501255</v>
-      </c>
-      <c r="I8">
-        <f>SUM(C38:L38)/10</f>
-        <v>0.9285839598997494</v>
-      </c>
-      <c r="K8">
-        <f>SUM(C30:L30)/10</f>
-        <v>0.92706265664160414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>29</v>
@@ -8110,11 +11366,12 @@
       <c r="N10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>0.91746867167919799</v>
-      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
       <c r="C11">
         <v>0.92754385964912278</v>
       </c>
@@ -8146,17 +11403,18 @@
         <v>0.9273433583959898</v>
       </c>
       <c r="M11">
-        <f>SUM(C11:L11)/10</f>
+        <f t="shared" si="0"/>
         <v>0.92597994987468657</v>
       </c>
       <c r="N11">
         <v>0.91746867167919799</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>0.91763369640941661</v>
-      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
       <c r="C12">
         <v>0.92711585307426181</v>
       </c>
@@ -8188,17 +11446,18 @@
         <v>0.92677941508237693</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M14" si="1">SUM(C12:L12)/10</f>
+        <f t="shared" si="0"/>
         <v>0.92537565897090313</v>
       </c>
       <c r="N12">
         <v>0.91763369640941661</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>0.91630351185382464</v>
-      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
       <c r="C13">
         <v>0.93257678882424255</v>
       </c>
@@ -8230,17 +11489,18 @@
         <v>0.9339126167749785</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.93281734625361956</v>
       </c>
       <c r="N13">
         <v>0.91630351185382464</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>0.91924924623115589</v>
-      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
       <c r="C14">
         <v>0.92205150753768839</v>
       </c>
@@ -8272,1712 +11532,2077 @@
         <v>0.92009120603015093</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.91841140703517588</v>
       </c>
       <c r="N14">
         <v>0.91924924623115589</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="C19">
+        <v>0.95095238095238099</v>
+      </c>
+      <c r="D19">
+        <v>0.94802005012531321</v>
+      </c>
+      <c r="E19">
+        <v>0.94874686716792</v>
+      </c>
+      <c r="F19">
+        <v>0.9503258145363408</v>
+      </c>
+      <c r="G19">
+        <v>0.9469674185463659</v>
+      </c>
+      <c r="H19">
+        <v>0.94947368421052625</v>
+      </c>
+      <c r="I19">
+        <v>0.94982456140350879</v>
+      </c>
+      <c r="J19">
+        <v>0.9485964912280701</v>
+      </c>
+      <c r="K19">
+        <v>0.94927318295739338</v>
+      </c>
+      <c r="L19">
+        <v>0.94761904761904758</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.9489799498746867</v>
+      </c>
+      <c r="N19">
+        <v>0.95225563909774447</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="C20">
+        <v>0.95048538580102293</v>
+      </c>
+      <c r="D20">
+        <v>0.94749946069267343</v>
+      </c>
+      <c r="E20">
+        <v>0.94833584076470956</v>
+      </c>
+      <c r="F20">
+        <v>0.94984467215824353</v>
+      </c>
+      <c r="G20">
+        <v>0.94641575660277599</v>
+      </c>
+      <c r="H20">
+        <v>0.94903793419896376</v>
+      </c>
+      <c r="I20">
+        <v>0.94939572436588027</v>
+      </c>
+      <c r="J20">
+        <v>0.94813915557295203</v>
+      </c>
+      <c r="K20">
+        <v>0.9488000007570353</v>
+      </c>
+      <c r="L20">
+        <v>0.94707056730211436</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0.94850244982163723</v>
+      </c>
+      <c r="N20">
+        <v>0.95208623711328488</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="C21">
+        <v>0.95952836578933942</v>
+      </c>
+      <c r="D21">
+        <v>0.95722769175559408</v>
+      </c>
+      <c r="E21">
+        <v>0.9558253010939497</v>
+      </c>
+      <c r="F21">
+        <v>0.95913446553597681</v>
+      </c>
+      <c r="G21">
+        <v>0.95614756275949175</v>
+      </c>
+      <c r="H21">
+        <v>0.95720943215979493</v>
+      </c>
+      <c r="I21">
+        <v>0.95749635930992316</v>
+      </c>
+      <c r="J21">
+        <v>0.95656417587388731</v>
+      </c>
+      <c r="K21">
+        <v>0.95789186874862697</v>
+      </c>
+      <c r="L21">
+        <v>0.9568597831240746</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0.95738850061506575</v>
+      </c>
+      <c r="N21">
+        <v>0.95525683935498928</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="C22">
+        <v>0.94180376884422112</v>
+      </c>
+      <c r="D22">
+        <v>0.93824447236180897</v>
+      </c>
+      <c r="E22">
+        <v>0.94120175879396972</v>
+      </c>
+      <c r="F22">
+        <v>0.94095477386934656</v>
+      </c>
+      <c r="G22">
+        <v>0.93708643216080401</v>
+      </c>
+      <c r="H22">
+        <v>0.9412040201005023</v>
+      </c>
+      <c r="I22">
+        <v>0.94165778894472385</v>
+      </c>
+      <c r="J22">
+        <v>0.94005050251256261</v>
+      </c>
+      <c r="K22">
+        <v>0.94010251256281396</v>
+      </c>
+      <c r="L22">
+        <v>0.93773844221105529</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0.94000444723618082</v>
+      </c>
+      <c r="N22">
+        <v>0.94912839195979903</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>0.95225563909774447</v>
-      </c>
-      <c r="C20">
-        <v>0.95095238095238099</v>
-      </c>
-      <c r="D20">
-        <v>0.92684210526315791</v>
-      </c>
-      <c r="E20">
-        <v>0.9245864661654134</v>
-      </c>
-      <c r="F20">
-        <v>0.92616541353383464</v>
-      </c>
-      <c r="G20">
-        <v>0.92380952380952353</v>
-      </c>
-      <c r="H20">
-        <v>0.92553884711779455</v>
-      </c>
-      <c r="I20">
-        <v>0.92706766917293226</v>
-      </c>
-      <c r="J20">
-        <v>0.92406015037593991</v>
-      </c>
-      <c r="K20">
-        <v>0.92684210526315791</v>
-      </c>
-      <c r="L20">
-        <v>0.9273433583959898</v>
-      </c>
-      <c r="M20">
-        <f>SUM(C20:L20)/10</f>
-        <v>0.92832080200501255</v>
-      </c>
-      <c r="N20">
-        <v>0.95225563909774447</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>0.95208623711328488</v>
-      </c>
-      <c r="C21">
-        <v>0.95048538580102293</v>
-      </c>
-      <c r="D21">
-        <v>0.9263388007278589</v>
-      </c>
-      <c r="E21">
-        <v>0.92393537072926302</v>
-      </c>
-      <c r="F21">
-        <v>0.92551538223751306</v>
-      </c>
-      <c r="G21">
-        <v>0.92302649229802003</v>
-      </c>
-      <c r="H21">
-        <v>0.92490875980682408</v>
-      </c>
-      <c r="I21">
-        <v>0.9264982239233861</v>
-      </c>
-      <c r="J21">
-        <v>0.92335104317265315</v>
-      </c>
-      <c r="K21">
-        <v>0.92628724865687351</v>
-      </c>
-      <c r="L21">
-        <v>0.92677941508237693</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ref="M21:M23" si="2">SUM(C21:L21)/10</f>
-        <v>0.92771261224357926</v>
-      </c>
-      <c r="N21">
-        <v>0.95208623711328488</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>0.95525683935498928</v>
-      </c>
-      <c r="C22">
-        <v>0.95952836578933942</v>
-      </c>
-      <c r="D22">
-        <v>0.93257312893700772</v>
-      </c>
-      <c r="E22">
-        <v>0.93168066876674982</v>
-      </c>
-      <c r="F22">
-        <v>0.93359883267629018</v>
-      </c>
-      <c r="G22">
-        <v>0.93209446415278041</v>
-      </c>
-      <c r="H22">
-        <v>0.93265568048280501</v>
-      </c>
-      <c r="I22">
-        <v>0.93380794610785001</v>
-      </c>
-      <c r="J22">
-        <v>0.93194025447350759</v>
-      </c>
-      <c r="K22">
-        <v>0.93333308133998227</v>
-      </c>
-      <c r="L22">
-        <v>0.9339126167749785</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0.93551250395012919</v>
-      </c>
-      <c r="N22">
-        <v>0.95525683935498928</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>0.94912839195979903</v>
-      </c>
-      <c r="C23">
-        <v>0.94180376884422112</v>
-      </c>
-      <c r="D23">
-        <v>0.92054924623115586</v>
-      </c>
-      <c r="E23">
-        <v>0.91668517587939691</v>
-      </c>
-      <c r="F23">
-        <v>0.91794472361809043</v>
-      </c>
-      <c r="G23">
-        <v>0.91452964824120608</v>
-      </c>
-      <c r="H23">
-        <v>0.91764020100502519</v>
-      </c>
-      <c r="I23">
-        <v>0.9196467336683416</v>
-      </c>
-      <c r="J23">
-        <v>0.91528165829145736</v>
-      </c>
-      <c r="K23">
-        <v>0.91969396984924612</v>
-      </c>
-      <c r="L23">
-        <v>0.92009120603015093</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.92038663316582914</v>
-      </c>
-      <c r="N23">
-        <v>0.94912839195979903</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="C27">
+        <v>0.93837092731829574</v>
+      </c>
+      <c r="D27">
+        <v>0.93754385964912279</v>
+      </c>
+      <c r="E27">
+        <v>0.93776942355889725</v>
+      </c>
+      <c r="F27">
+        <v>0.93837092731829597</v>
+      </c>
+      <c r="G27">
+        <v>0.93481203007518798</v>
+      </c>
+      <c r="H27">
+        <v>0.93796992481203001</v>
+      </c>
+      <c r="I27">
+        <v>0.93669172932330858</v>
+      </c>
+      <c r="J27">
+        <v>0.93624060150375943</v>
+      </c>
+      <c r="K27">
+        <v>0.9385964912280701</v>
+      </c>
+      <c r="L27">
+        <v>0.939248120300752</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0.93756140350877182</v>
+      </c>
+      <c r="N27">
+        <v>0.93107769423558906</v>
+      </c>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="C28">
+        <v>0.93800339303660296</v>
+      </c>
+      <c r="D28">
+        <v>0.93729232914622729</v>
+      </c>
+      <c r="E28">
+        <v>0.93750608584035233</v>
+      </c>
+      <c r="F28">
+        <v>0.9379794242914482</v>
+      </c>
+      <c r="G28">
+        <v>0.93446542064497828</v>
+      </c>
+      <c r="H28">
+        <v>0.93784829760279176</v>
+      </c>
+      <c r="I28">
+        <v>0.93640930539992595</v>
+      </c>
+      <c r="J28">
+        <v>0.93590935809953169</v>
+      </c>
+      <c r="K28">
+        <v>0.93826467953137271</v>
+      </c>
+      <c r="L28">
+        <v>0.93893571251378549</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0.93726140061070173</v>
+      </c>
+      <c r="N28">
+        <v>0.93058980490150589</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="C29">
+        <v>0.94364258736844286</v>
+      </c>
+      <c r="D29">
+        <v>0.94149642356667029</v>
+      </c>
+      <c r="E29">
+        <v>0.94177936441131682</v>
+      </c>
+      <c r="F29">
+        <v>0.94390320218112056</v>
+      </c>
+      <c r="G29">
+        <v>0.93955263086576113</v>
+      </c>
+      <c r="H29">
+        <v>0.93976758338877342</v>
+      </c>
+      <c r="I29">
+        <v>0.94051804302282838</v>
+      </c>
+      <c r="J29">
+        <v>0.94105599430225839</v>
+      </c>
+      <c r="K29">
+        <v>0.94323939289909897</v>
+      </c>
+      <c r="L29">
+        <v>0.94398320902021782</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0.94189384310264879</v>
+      </c>
+      <c r="N29">
+        <v>0.93698994079354425</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="C30">
+        <v>0.93272487437185925</v>
+      </c>
+      <c r="D30">
+        <v>0.93342763819095476</v>
+      </c>
+      <c r="E30">
+        <v>0.93357110552763811</v>
+      </c>
+      <c r="F30">
+        <v>0.93242487437185917</v>
+      </c>
+      <c r="G30">
+        <v>0.9297165829145726</v>
+      </c>
+      <c r="H30">
+        <v>0.93623391959798985</v>
+      </c>
+      <c r="I30">
+        <v>0.93257236180904501</v>
+      </c>
+      <c r="J30">
+        <v>0.93106834170854258</v>
+      </c>
+      <c r="K30">
+        <v>0.93357763819095463</v>
+      </c>
+      <c r="L30">
+        <v>0.934227135678392</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0.93295444723618071</v>
+      </c>
+      <c r="N30">
+        <v>0.9245123115577889</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>0.93107769423558906</v>
-      </c>
-      <c r="C30">
-        <v>0.93837092731829574</v>
-      </c>
-      <c r="D30">
-        <v>0.92684210526315791</v>
-      </c>
-      <c r="E30">
-        <v>0.9245864661654134</v>
-      </c>
-      <c r="F30">
-        <v>0.92616541353383464</v>
-      </c>
-      <c r="G30">
-        <v>0.92380952380952353</v>
-      </c>
-      <c r="H30">
-        <v>0.92553884711779455</v>
-      </c>
-      <c r="I30">
-        <v>0.92706766917293226</v>
-      </c>
-      <c r="J30">
-        <v>0.92406015037593991</v>
-      </c>
-      <c r="K30">
-        <v>0.92684210526315791</v>
-      </c>
-      <c r="L30">
-        <v>0.9273433583959898</v>
-      </c>
-      <c r="M30">
-        <f>SUM(C30:L30)/10</f>
-        <v>0.92706265664160414</v>
-      </c>
-      <c r="N30">
-        <v>0.93107769423558906</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <v>0.93058980490150589</v>
-      </c>
-      <c r="C31">
-        <v>0.93800339303660296</v>
-      </c>
-      <c r="D31">
-        <v>0.9263388007278589</v>
-      </c>
-      <c r="E31">
-        <v>0.92393537072926302</v>
-      </c>
-      <c r="F31">
-        <v>0.92551538223751306</v>
-      </c>
-      <c r="G31">
-        <v>0.92302649229802003</v>
-      </c>
-      <c r="H31">
-        <v>0.92490875980682408</v>
-      </c>
-      <c r="I31">
-        <v>0.9264982239233861</v>
-      </c>
-      <c r="J31">
-        <v>0.92335104317265315</v>
-      </c>
-      <c r="K31">
-        <v>0.92628724865687351</v>
-      </c>
-      <c r="L31">
-        <v>0.92677941508237693</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ref="M31:M33" si="3">SUM(C31:L31)/10</f>
-        <v>0.92646441296713733</v>
-      </c>
-      <c r="N31">
-        <v>0.93058980490150589</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>0.93698994079354425</v>
-      </c>
-      <c r="C32">
-        <v>0.94364258736844286</v>
-      </c>
-      <c r="D32">
-        <v>0.93257312893700772</v>
-      </c>
-      <c r="E32">
-        <v>0.93168066876674982</v>
-      </c>
-      <c r="F32">
-        <v>0.93359883267629018</v>
-      </c>
-      <c r="G32">
-        <v>0.93209446415278041</v>
-      </c>
-      <c r="H32">
-        <v>0.93265568048280501</v>
-      </c>
-      <c r="I32">
-        <v>0.93380794610785001</v>
-      </c>
-      <c r="J32">
-        <v>0.93194025447350759</v>
-      </c>
-      <c r="K32">
-        <v>0.93333308133998227</v>
-      </c>
-      <c r="L32">
-        <v>0.9339126167749785</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="3"/>
-        <v>0.93392392610803954</v>
-      </c>
-      <c r="N32">
-        <v>0.93698994079354425</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>0.9245123115577889</v>
-      </c>
-      <c r="C33">
-        <v>0.93272487437185925</v>
-      </c>
-      <c r="D33">
-        <v>0.92054924623115586</v>
-      </c>
-      <c r="E33">
-        <v>0.91668517587939691</v>
-      </c>
-      <c r="F33">
-        <v>0.91794472361809043</v>
-      </c>
-      <c r="G33">
-        <v>0.91452964824120608</v>
-      </c>
-      <c r="H33">
-        <v>0.91764020100502519</v>
-      </c>
-      <c r="I33">
-        <v>0.9196467336683416</v>
-      </c>
-      <c r="J33">
-        <v>0.91528165829145736</v>
-      </c>
-      <c r="K33">
-        <v>0.91969396984924612</v>
-      </c>
-      <c r="L33">
-        <v>0.92009120603015093</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
-        <v>0.91947874371859295</v>
-      </c>
-      <c r="N33">
-        <v>0.9245123115577889</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B38">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="C35">
+        <v>0.9535839598997492</v>
+      </c>
+      <c r="D35">
+        <v>0.95323308270676688</v>
+      </c>
+      <c r="E35">
+        <v>0.954310776942356</v>
+      </c>
+      <c r="F35">
+        <v>0.95395989974937334</v>
+      </c>
+      <c r="G35">
+        <v>0.95370927318295717</v>
+      </c>
+      <c r="H35">
+        <v>0.95388471177944867</v>
+      </c>
+      <c r="I35">
+        <v>0.95418546365914791</v>
+      </c>
+      <c r="J35">
+        <v>0.95192982456140351</v>
+      </c>
+      <c r="K35">
+        <v>0.95318295739348369</v>
+      </c>
+      <c r="L35">
+        <v>0.95298245614035093</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0.95349624060150384</v>
+      </c>
+      <c r="N35">
         <v>0.95819548872180449</v>
       </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="C36">
+        <v>0.95351305164047351</v>
+      </c>
+      <c r="D36">
+        <v>0.95321865157140673</v>
+      </c>
+      <c r="E36">
+        <v>0.95426231913492177</v>
+      </c>
+      <c r="F36">
+        <v>0.95394067030493701</v>
+      </c>
+      <c r="G36">
+        <v>0.95362922606302247</v>
+      </c>
+      <c r="H36">
+        <v>0.95386926311152853</v>
+      </c>
+      <c r="I36">
+        <v>0.95416068833165635</v>
+      </c>
+      <c r="J36">
+        <v>0.95189465937601336</v>
+      </c>
+      <c r="K36">
+        <v>0.9531145942155379</v>
+      </c>
+      <c r="L36">
+        <v>0.95295506288076792</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0.95345581866302653</v>
+      </c>
+      <c r="N36">
+        <v>0.95842238824330561</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="C37">
+        <v>0.95509994387626695</v>
+      </c>
+      <c r="D37">
+        <v>0.95408229827387292</v>
+      </c>
+      <c r="E37">
+        <v>0.95510031963897035</v>
+      </c>
+      <c r="F37">
+        <v>0.95443885673599571</v>
+      </c>
+      <c r="G37">
+        <v>0.95523629998836623</v>
+      </c>
+      <c r="H37">
+        <v>0.9542607400749058</v>
+      </c>
+      <c r="I37">
+        <v>0.95458838934260015</v>
+      </c>
+      <c r="J37">
+        <v>0.95289672112425849</v>
+      </c>
+      <c r="K37">
+        <v>0.95452583162693816</v>
+      </c>
+      <c r="L37">
+        <v>0.95377608363320887</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0.95440054843153832</v>
+      </c>
+      <c r="N37">
+        <v>0.95355279706781415</v>
+      </c>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
       <c r="C38">
-        <v>0.9535839598997492</v>
+        <v>0.9521213567839194</v>
       </c>
       <c r="D38">
-        <v>0.92684210526315791</v>
+        <v>0.95258165829145713</v>
       </c>
       <c r="E38">
-        <v>0.9245864661654134</v>
+        <v>0.95362587939698484</v>
       </c>
       <c r="F38">
-        <v>0.92616541353383464</v>
+        <v>0.95368341708542703</v>
       </c>
       <c r="G38">
-        <v>0.92380952380952353</v>
+        <v>0.95222613065326622</v>
       </c>
       <c r="H38">
-        <v>0.92553884711779455</v>
+        <v>0.95368341708542725</v>
       </c>
       <c r="I38">
-        <v>0.92706766917293226</v>
+        <v>0.953932663316583</v>
       </c>
       <c r="J38">
-        <v>0.92406015037593991</v>
+        <v>0.95112738693467336</v>
       </c>
       <c r="K38">
-        <v>0.92684210526315791</v>
+        <v>0.95192989949748752</v>
       </c>
       <c r="L38">
-        <v>0.9273433583959898</v>
+        <v>0.95238065326633159</v>
       </c>
       <c r="M38">
-        <f>SUM(C38:L38)/10</f>
-        <v>0.9285839598997494</v>
+        <f t="shared" si="0"/>
+        <v>0.95272924623115574</v>
       </c>
       <c r="N38">
-        <v>0.95819548872180449</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>0.95842238824330561</v>
-      </c>
-      <c r="C39">
-        <v>0.95351305164047351</v>
-      </c>
-      <c r="D39">
-        <v>0.9263388007278589</v>
-      </c>
-      <c r="E39">
-        <v>0.92393537072926302</v>
-      </c>
-      <c r="F39">
-        <v>0.92551538223751306</v>
-      </c>
-      <c r="G39">
-        <v>0.92302649229802003</v>
-      </c>
-      <c r="H39">
-        <v>0.92490875980682408</v>
-      </c>
-      <c r="I39">
-        <v>0.9264982239233861</v>
-      </c>
-      <c r="J39">
-        <v>0.92335104317265315</v>
-      </c>
-      <c r="K39">
-        <v>0.92628724865687351</v>
-      </c>
-      <c r="L39">
-        <v>0.92677941508237693</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ref="M39:M41" si="4">SUM(C39:L39)/10</f>
-        <v>0.92801537882752427</v>
-      </c>
-      <c r="N39">
-        <v>0.95842238824330561</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>0.95355279706781415</v>
-      </c>
-      <c r="C40">
-        <v>0.95509994387626695</v>
-      </c>
-      <c r="D40">
-        <v>0.93257312893700772</v>
-      </c>
-      <c r="E40">
-        <v>0.93168066876674982</v>
-      </c>
-      <c r="F40">
-        <v>0.93359883267629018</v>
-      </c>
-      <c r="G40">
-        <v>0.93209446415278041</v>
-      </c>
-      <c r="H40">
-        <v>0.93265568048280501</v>
-      </c>
-      <c r="I40">
-        <v>0.93380794610785001</v>
-      </c>
-      <c r="J40">
-        <v>0.93194025447350759</v>
-      </c>
-      <c r="K40">
-        <v>0.93333308133998227</v>
-      </c>
-      <c r="L40">
-        <v>0.9339126167749785</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="4"/>
-        <v>0.935069661758822</v>
-      </c>
-      <c r="N40">
-        <v>0.95355279706781415</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B41">
         <v>0.96351030150753758</v>
       </c>
-      <c r="C41">
-        <v>0.9521213567839194</v>
-      </c>
-      <c r="D41">
-        <v>0.92054924623115586</v>
-      </c>
-      <c r="E41">
-        <v>0.91668517587939691</v>
-      </c>
-      <c r="F41">
-        <v>0.91794472361809043</v>
-      </c>
-      <c r="G41">
-        <v>0.91452964824120608</v>
-      </c>
-      <c r="H41">
-        <v>0.91764020100502519</v>
-      </c>
-      <c r="I41">
-        <v>0.9196467336683416</v>
-      </c>
-      <c r="J41">
-        <v>0.91528165829145736</v>
-      </c>
-      <c r="K41">
-        <v>0.91969396984924612</v>
-      </c>
-      <c r="L41">
-        <v>0.92009120603015093</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="4"/>
-        <v>0.92141839195979891</v>
-      </c>
-      <c r="N41">
-        <v>0.96351030150753758</v>
-      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="10"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1.278195488721804E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.37193953092679E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.3653421346787009E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.274908545858393E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.379354906620245E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.3757092903873129E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.096413173018412E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.2557841626266331E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.285164548524601E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.465415484151191E-2</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B2:K2)/10</f>
+        <v>1.3148227265514081E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.550394252578202E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1.3339142257347759E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.4470946132628551E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.4309586249653431E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.3332598637838221E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.4294097480630961E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.4330753820611339E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.1225094265802321E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.2455161055792431E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.3130873948384379E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.4899777136485669E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L37" si="0">SUM(B3:K3)/10</f>
+        <v>1.3578803098517505E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.5972246223144991E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1.8172788386260082E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.9059061723182461E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.8678847512911021E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.8825840208296689E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.8512779913146121E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.8383292356019199E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.7716583524665399E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.9727146940229329E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.7821145197859191E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.0543478465619582E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.8744096422818907E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.8666603163908651E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2.3004222544566199E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.4382862309306239E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.2978831762602969E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.285161602221818E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.196673098017328E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.2965118274124171E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.9668054462869101E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.7930745087796841E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.8766931984348138E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.180793287346906E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.1632304630147418E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.343643556423991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10">
+        <v>1.186231715879435E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.262468981090834E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.2258150231435319E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.224956412622627E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.2611273809933959E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.1847481242499741E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.0800231291436211E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.299638312026484E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.102583148764617E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.208474940092326E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.2036067168006846E-2</v>
+      </c>
+      <c r="M10">
         <v>1.280530080848058E-2</v>
       </c>
-      <c r="C2">
-        <v>1.186231715879435E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.262468981090834E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.2258150231435319E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.224956412622627E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.2611273809933959E-2</v>
-      </c>
-      <c r="H2">
-        <v>1.1847481242499741E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.0800231291436211E-2</v>
-      </c>
-      <c r="J2">
-        <v>1.299638312026484E-2</v>
-      </c>
-      <c r="K2">
-        <v>1.102583148764617E-2</v>
-      </c>
-      <c r="L2">
-        <v>1.208474940092326E-2</v>
-      </c>
-      <c r="M2">
-        <f>SUM(C2:L2)/10</f>
-        <v>1.2036067168006846E-2</v>
-      </c>
-      <c r="N2">
-        <v>1.280530080848058E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11">
+        <v>1.205521005784376E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.2934480921513419E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.260612357464898E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.2521313770795191E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.311884202495975E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.21566685784982E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.103746671556915E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.327977728836607E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.125902523118995E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.2318937729365081E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1.2328784589274956E-2</v>
+      </c>
+      <c r="M11">
         <v>1.2622526407812499E-2</v>
       </c>
-      <c r="C3">
-        <v>1.205521005784376E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.2934480921513419E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.260612357464898E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.2521313770795191E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.311884202495975E-2</v>
-      </c>
-      <c r="H3">
-        <v>1.21566685784982E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.103746671556915E-2</v>
-      </c>
-      <c r="J3">
-        <v>1.327977728836607E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.125902523118995E-2</v>
-      </c>
-      <c r="L3">
-        <v>1.2318937729365081E-2</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M5" si="0">SUM(C3:L3)/10</f>
-        <v>1.2328784589274956E-2</v>
-      </c>
-      <c r="N3">
-        <v>1.2622526407812499E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>1.7888024206354679E-2</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12">
         <v>1.6101576825508671E-2</v>
       </c>
-      <c r="D4">
+      <c r="C12">
         <v>1.6280650239744579E-2</v>
       </c>
-      <c r="E4">
+      <c r="D12">
         <v>1.584807909274713E-2</v>
       </c>
-      <c r="F4">
+      <c r="E12">
         <v>1.639192946533528E-2</v>
       </c>
-      <c r="G4">
+      <c r="F12">
         <v>1.571537855320124E-2</v>
       </c>
-      <c r="H4">
+      <c r="G12">
         <v>1.5922682979086649E-2</v>
       </c>
-      <c r="I4">
+      <c r="H12">
         <v>1.567340655738627E-2</v>
       </c>
-      <c r="J4">
+      <c r="I12">
         <v>1.690744293312705E-2</v>
       </c>
-      <c r="K4">
+      <c r="J12">
         <v>1.587435630572467E-2</v>
       </c>
-      <c r="L4">
+      <c r="K12">
         <v>1.613498783246986E-2</v>
       </c>
-      <c r="M4">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>1.6085049078433139E-2</v>
       </c>
-      <c r="N4">
+      <c r="M12">
         <v>1.7888024206354679E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>1.5976409293005381E-2</v>
-      </c>
-      <c r="C5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13">
         <v>1.8497537393160561E-2</v>
       </c>
-      <c r="D5">
+      <c r="C13">
         <v>2.0008374935231471E-2</v>
       </c>
-      <c r="E5">
+      <c r="D13">
         <v>2.013187101808022E-2</v>
       </c>
-      <c r="F5">
+      <c r="E13">
         <v>1.97653752516085E-2</v>
       </c>
-      <c r="G5">
+      <c r="F13">
         <v>2.1467319062533931E-2</v>
       </c>
-      <c r="H5">
+      <c r="G13">
         <v>1.9135403142946709E-2</v>
       </c>
-      <c r="I5">
+      <c r="H13">
         <v>1.7839837492888842E-2</v>
       </c>
-      <c r="J5">
+      <c r="I13">
         <v>1.9961993032172901E-2</v>
       </c>
-      <c r="K5">
+      <c r="J13">
         <v>1.8017078090007872E-2</v>
       </c>
-      <c r="L5">
+      <c r="K13">
         <v>1.8817030518841999E-2</v>
       </c>
-      <c r="M5">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>1.9364181993747304E-2</v>
       </c>
-      <c r="N5">
+      <c r="M13">
         <v>1.5976409293005381E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>1.550394252578202E-2</v>
-      </c>
-      <c r="C10">
-        <v>1.278195488721804E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.262468981090834E-2</v>
-      </c>
-      <c r="E10">
-        <v>1.2258150231435319E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.224956412622627E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.2611273809933959E-2</v>
-      </c>
-      <c r="H10">
-        <v>1.1847481242499741E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.0800231291436211E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.299638312026484E-2</v>
-      </c>
-      <c r="K10">
-        <v>1.102583148764617E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.208474940092326E-2</v>
-      </c>
-      <c r="M10">
-        <f>SUM(C10:L10)/10</f>
-        <v>1.2128030940849216E-2</v>
-      </c>
-      <c r="N10">
-        <v>1.550394252578202E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>1.5972246223144991E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.3339142257347759E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.2934480921513419E-2</v>
-      </c>
-      <c r="E11">
-        <v>1.260612357464898E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.2521313770795191E-2</v>
-      </c>
-      <c r="G11">
-        <v>1.311884202495975E-2</v>
-      </c>
-      <c r="H11">
-        <v>1.21566685784982E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.103746671556915E-2</v>
-      </c>
-      <c r="J11">
-        <v>1.327977728836607E-2</v>
-      </c>
-      <c r="K11">
-        <v>1.125902523118995E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.2318937729365081E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ref="M11:M13" si="1">SUM(C11:L11)/10</f>
-        <v>1.2457177809225357E-2</v>
-      </c>
-      <c r="N11">
-        <v>1.5972246223144991E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>1.8666603163908651E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.8172788386260082E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.6280650239744579E-2</v>
-      </c>
-      <c r="E12">
-        <v>1.584807909274713E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.639192946533528E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.571537855320124E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.5922682979086649E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.567340655738627E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.690744293312705E-2</v>
-      </c>
-      <c r="K12">
-        <v>1.587435630572467E-2</v>
-      </c>
-      <c r="L12">
-        <v>1.613498783246986E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>1.6292170234508279E-2</v>
-      </c>
-      <c r="N12">
-        <v>1.8666603163908651E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>2.343643556423991E-2</v>
-      </c>
-      <c r="C13">
-        <v>2.3004222544566199E-2</v>
-      </c>
-      <c r="D13">
-        <v>2.0008374935231471E-2</v>
-      </c>
-      <c r="E13">
-        <v>2.013187101808022E-2</v>
-      </c>
-      <c r="F13">
-        <v>1.97653752516085E-2</v>
-      </c>
-      <c r="G13">
-        <v>2.1467319062533931E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.9135403142946709E-2</v>
-      </c>
-      <c r="I13">
-        <v>1.7839837492888842E-2</v>
-      </c>
-      <c r="J13">
-        <v>1.9961993032172901E-2</v>
-      </c>
-      <c r="K13">
-        <v>1.8017078090007872E-2</v>
-      </c>
-      <c r="L13">
-        <v>1.8817030518841999E-2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>1.9814850508887864E-2</v>
-      </c>
-      <c r="N13">
-        <v>2.343643556423991E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18">
+        <v>1.0032922983648969E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.1683714853652169E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.024431299951244E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.0623610502965449E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.189206551564965E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.0696323744039411E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.053216211916044E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.1261446767192301E-2</v>
+      </c>
+      <c r="J18">
+        <v>9.7398011134912886E-3</v>
+      </c>
+      <c r="K18">
+        <v>1.105317146426063E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1.0775953206357276E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.0874853934660471E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19">
+        <v>1.0175730773616691E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.18051250965517E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.0412274738176351E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.0762312199544981E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.209871300952468E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.0836933457100829E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.06888336268395E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.1418220386597519E-2</v>
+      </c>
+      <c r="J19">
+        <v>9.8141122181310443E-3</v>
+      </c>
+      <c r="K19">
+        <v>1.128259123566358E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1.0929484674174688E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.098143599795182E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20">
+        <v>1.322949039003222E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.6359654389388509E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.393728199991736E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.4388498962293449E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.4697504373167971E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.385676514663392E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.398404545629719E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.406857393927244E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.424156590593462E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.467872331042624E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1.4344210387336392E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.306765733871465E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21">
+        <v>1.4698444914667741E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.657378790078377E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.5795101403289338E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.5387069655329591E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.6516973707187629E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.5226973408191071E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.5765038077826289E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.5585781148639359E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.424893209531586E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.6858450388417951E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1.5665655269964864E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.5919569317124939E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="D25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="E25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>1.0874853934660471E-2</v>
-      </c>
-      <c r="C18">
-        <v>1.0032922983648969E-2</v>
-      </c>
-      <c r="D18">
-        <v>1.262468981090834E-2</v>
-      </c>
-      <c r="E18">
-        <v>1.2258150231435319E-2</v>
-      </c>
-      <c r="F18">
-        <v>1.224956412622627E-2</v>
-      </c>
-      <c r="G18">
-        <v>1.2611273809933959E-2</v>
-      </c>
-      <c r="H18">
-        <v>1.1847481242499741E-2</v>
-      </c>
-      <c r="I18">
-        <v>1.0800231291436211E-2</v>
-      </c>
-      <c r="J18">
-        <v>1.299638312026484E-2</v>
-      </c>
-      <c r="K18">
-        <v>1.102583148764617E-2</v>
-      </c>
-      <c r="L18">
-        <v>1.208474940092326E-2</v>
-      </c>
-      <c r="M18">
-        <f>SUM(C18:L18)/10</f>
-        <v>1.1853127750492309E-2</v>
-      </c>
-      <c r="N18">
-        <v>1.0874853934660471E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>1.098143599795182E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.0175730773616691E-2</v>
-      </c>
-      <c r="D19">
-        <v>1.2934480921513419E-2</v>
-      </c>
-      <c r="E19">
-        <v>1.260612357464898E-2</v>
-      </c>
-      <c r="F19">
-        <v>1.2521313770795191E-2</v>
-      </c>
-      <c r="G19">
-        <v>1.311884202495975E-2</v>
-      </c>
-      <c r="H19">
-        <v>1.21566685784982E-2</v>
-      </c>
-      <c r="I19">
-        <v>1.103746671556915E-2</v>
-      </c>
-      <c r="J19">
-        <v>1.327977728836607E-2</v>
-      </c>
-      <c r="K19">
-        <v>1.125902523118995E-2</v>
-      </c>
-      <c r="L19">
-        <v>1.2318937729365081E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ref="M19:M21" si="2">SUM(C19:L19)/10</f>
-        <v>1.2140836660852248E-2</v>
-      </c>
-      <c r="N19">
-        <v>1.098143599795182E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>1.306765733871465E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.322949039003222E-2</v>
-      </c>
-      <c r="D20">
-        <v>1.6280650239744579E-2</v>
-      </c>
-      <c r="E20">
-        <v>1.584807909274713E-2</v>
-      </c>
-      <c r="F20">
-        <v>1.639192946533528E-2</v>
-      </c>
-      <c r="G20">
-        <v>1.571537855320124E-2</v>
-      </c>
-      <c r="H20">
-        <v>1.5922682979086649E-2</v>
-      </c>
-      <c r="I20">
-        <v>1.567340655738627E-2</v>
-      </c>
-      <c r="J20">
-        <v>1.690744293312705E-2</v>
-      </c>
-      <c r="K20">
-        <v>1.587435630572467E-2</v>
-      </c>
-      <c r="L20">
-        <v>1.613498783246986E-2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>1.5797840434885493E-2</v>
-      </c>
-      <c r="N20">
-        <v>1.306765733871465E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>1.5919569317124939E-2</v>
-      </c>
-      <c r="C21">
-        <v>1.4698444914667741E-2</v>
-      </c>
-      <c r="D21">
-        <v>2.0008374935231471E-2</v>
-      </c>
-      <c r="E21">
-        <v>2.013187101808022E-2</v>
-      </c>
-      <c r="F21">
-        <v>1.97653752516085E-2</v>
-      </c>
-      <c r="G21">
-        <v>2.1467319062533931E-2</v>
-      </c>
-      <c r="H21">
-        <v>1.9135403142946709E-2</v>
-      </c>
-      <c r="I21">
-        <v>1.7839837492888842E-2</v>
-      </c>
-      <c r="J21">
-        <v>1.9961993032172901E-2</v>
-      </c>
-      <c r="K21">
-        <v>1.8017078090007872E-2</v>
-      </c>
-      <c r="L21">
-        <v>1.8817030518841999E-2</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>1.8984272745898024E-2</v>
-      </c>
-      <c r="N21">
-        <v>1.5919569317124939E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="F25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+      <c r="B26">
+        <v>1.177728876908582E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.3011743510642659E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.185150997040417E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.28290204293763E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.275733537397933E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.2402217084026451E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.193898260563386E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.344218480510501E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.168844492868272E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.213467475221894E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>1.2383340222915526E-2</v>
+      </c>
+      <c r="M26">
+        <v>1.2336836565653099E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+      <c r="B27">
+        <v>1.190701933509414E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.2992715139968381E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.1875910151503331E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.3018201895926821E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.2832487274682169E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.247345167987588E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.209348958565086E-2</v>
+      </c>
+      <c r="I27">
+        <v>1.3470588723654491E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.1834350661079169E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.22307176995155E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.2472893214695073E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.258211144923168E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+      <c r="B28">
+        <v>1.6046825548710699E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.8244038380697571E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.7152560636724299E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.6698552926485768E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.6920093135278522E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.6706008814679329E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.524451053143547E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.76202056020585E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.4866908677596021E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.704110307267288E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>1.6654080732633907E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.467772151555315E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+      <c r="B29">
+        <v>1.7392653943234509E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.691755325814628E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.6417557498753971E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.8398169961997741E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.7537776302496932E-2</v>
+      </c>
+      <c r="G29">
+        <v>1.757241773609397E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.674592213597496E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.691339584519282E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.6709770195211169E-2</v>
+      </c>
+      <c r="K29">
+        <v>1.664447273919599E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>1.7124968961629832E-2</v>
+      </c>
+      <c r="M29">
+        <v>1.7956612697968909E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="D33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="E33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>1.2336836565653099E-2</v>
-      </c>
-      <c r="C26">
-        <v>1.177728876908582E-2</v>
-      </c>
-      <c r="D26">
-        <v>1.262468981090834E-2</v>
-      </c>
-      <c r="E26">
-        <v>1.2258150231435319E-2</v>
-      </c>
-      <c r="F26">
-        <v>1.224956412622627E-2</v>
-      </c>
-      <c r="G26">
-        <v>1.2611273809933959E-2</v>
-      </c>
-      <c r="H26">
-        <v>1.1847481242499741E-2</v>
-      </c>
-      <c r="I26">
-        <v>1.0800231291436211E-2</v>
-      </c>
-      <c r="J26">
-        <v>1.299638312026484E-2</v>
-      </c>
-      <c r="K26">
-        <v>1.102583148764617E-2</v>
-      </c>
-      <c r="L26">
-        <v>1.208474940092326E-2</v>
-      </c>
-      <c r="M26">
-        <f>SUM(C26:L26)/10</f>
-        <v>1.2027564329035994E-2</v>
-      </c>
-      <c r="N26">
-        <v>1.2336836565653099E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>1.258211144923168E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.190701933509414E-2</v>
-      </c>
-      <c r="D27">
-        <v>1.2934480921513419E-2</v>
-      </c>
-      <c r="E27">
-        <v>1.260612357464898E-2</v>
-      </c>
-      <c r="F27">
-        <v>1.2521313770795191E-2</v>
-      </c>
-      <c r="G27">
-        <v>1.311884202495975E-2</v>
-      </c>
-      <c r="H27">
-        <v>1.21566685784982E-2</v>
-      </c>
-      <c r="I27">
-        <v>1.103746671556915E-2</v>
-      </c>
-      <c r="J27">
-        <v>1.327977728836607E-2</v>
-      </c>
-      <c r="K27">
-        <v>1.125902523118995E-2</v>
-      </c>
-      <c r="L27">
-        <v>1.2318937729365081E-2</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M29" si="3">SUM(C27:L27)/10</f>
-        <v>1.2313965516999995E-2</v>
-      </c>
-      <c r="N27">
-        <v>1.258211144923168E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>1.467772151555315E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.6046825548710699E-2</v>
-      </c>
-      <c r="D28">
-        <v>1.6280650239744579E-2</v>
-      </c>
-      <c r="E28">
-        <v>1.584807909274713E-2</v>
-      </c>
-      <c r="F28">
-        <v>1.639192946533528E-2</v>
-      </c>
-      <c r="G28">
-        <v>1.571537855320124E-2</v>
-      </c>
-      <c r="H28">
-        <v>1.5922682979086649E-2</v>
-      </c>
-      <c r="I28">
-        <v>1.567340655738627E-2</v>
-      </c>
-      <c r="J28">
-        <v>1.690744293312705E-2</v>
-      </c>
-      <c r="K28">
-        <v>1.587435630572467E-2</v>
-      </c>
-      <c r="L28">
-        <v>1.613498783246986E-2</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
-        <v>1.6079573950753344E-2</v>
-      </c>
-      <c r="N28">
-        <v>1.467772151555315E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>1.7956612697968909E-2</v>
-      </c>
-      <c r="C29">
-        <v>1.7392653943234509E-2</v>
-      </c>
-      <c r="D29">
-        <v>2.0008374935231471E-2</v>
-      </c>
-      <c r="E29">
-        <v>2.013187101808022E-2</v>
-      </c>
-      <c r="F29">
-        <v>1.97653752516085E-2</v>
-      </c>
-      <c r="G29">
-        <v>2.1467319062533931E-2</v>
-      </c>
-      <c r="H29">
-        <v>1.9135403142946709E-2</v>
-      </c>
-      <c r="I29">
-        <v>1.7839837492888842E-2</v>
-      </c>
-      <c r="J29">
-        <v>1.9961993032172901E-2</v>
-      </c>
-      <c r="K29">
-        <v>1.8017078090007872E-2</v>
-      </c>
-      <c r="L29">
-        <v>1.8817030518841999E-2</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="3"/>
-        <v>1.9253693648754698E-2</v>
-      </c>
-      <c r="N29">
-        <v>1.7956612697968909E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34"/>
       <c r="B34">
+        <v>9.9083430864195972E-3</v>
+      </c>
+      <c r="C34">
+        <v>1.062266443706399E-2</v>
+      </c>
+      <c r="D34">
+        <v>9.954986912907169E-3</v>
+      </c>
+      <c r="E34">
+        <v>1.0853345767656021E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.04331417568872E-2</v>
+      </c>
+      <c r="G34">
+        <v>1.0211302650357581E-2</v>
+      </c>
+      <c r="H34">
+        <v>1.0733607575898909E-2</v>
+      </c>
+      <c r="I34">
+        <v>1.1310896618268441E-2</v>
+      </c>
+      <c r="J34">
+        <v>9.1324414135306262E-3</v>
+      </c>
+      <c r="K34">
+        <v>1.1556684213871991E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>1.0471741443286152E-2</v>
+      </c>
+      <c r="M34">
         <v>9.0564664910831733E-3</v>
       </c>
-      <c r="C34">
-        <v>9.9083430864195972E-3</v>
-      </c>
-      <c r="D34">
-        <v>1.262468981090834E-2</v>
-      </c>
-      <c r="E34">
-        <v>1.2258150231435319E-2</v>
-      </c>
-      <c r="F34">
-        <v>1.224956412622627E-2</v>
-      </c>
-      <c r="G34">
-        <v>1.2611273809933959E-2</v>
-      </c>
-      <c r="H34">
-        <v>1.1847481242499741E-2</v>
-      </c>
-      <c r="I34">
-        <v>1.0800231291436211E-2</v>
-      </c>
-      <c r="J34">
-        <v>1.299638312026484E-2</v>
-      </c>
-      <c r="K34">
-        <v>1.102583148764617E-2</v>
-      </c>
-      <c r="L34">
-        <v>1.208474940092326E-2</v>
-      </c>
-      <c r="M34">
-        <f>SUM(C34:L34)/10</f>
-        <v>1.1840669760769371E-2</v>
-      </c>
-      <c r="N34">
-        <v>9.0564664910831733E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35"/>
       <c r="B35">
+        <v>9.9325363868042037E-3</v>
+      </c>
+      <c r="C35">
+        <v>1.053831465639055E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.002597059536278E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.087637775751798E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.0475972015957E-2</v>
+      </c>
+      <c r="G35">
+        <v>1.023077499893468E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.08294532147649E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.127647415367483E-2</v>
+      </c>
+      <c r="J35">
+        <v>9.1861158447736745E-3</v>
+      </c>
+      <c r="K35">
+        <v>1.157181665738841E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>1.0494380628156901E-2</v>
+      </c>
+      <c r="M35">
         <v>8.9632855535042542E-3</v>
       </c>
-      <c r="C35">
-        <v>9.9325363868042037E-3</v>
-      </c>
-      <c r="D35">
-        <v>1.2934480921513419E-2</v>
-      </c>
-      <c r="E35">
-        <v>1.260612357464898E-2</v>
-      </c>
-      <c r="F35">
-        <v>1.2521313770795191E-2</v>
-      </c>
-      <c r="G35">
-        <v>1.311884202495975E-2</v>
-      </c>
-      <c r="H35">
-        <v>1.21566685784982E-2</v>
-      </c>
-      <c r="I35">
-        <v>1.103746671556915E-2</v>
-      </c>
-      <c r="J35">
-        <v>1.327977728836607E-2</v>
-      </c>
-      <c r="K35">
-        <v>1.125902523118995E-2</v>
-      </c>
-      <c r="L35">
-        <v>1.2318937729365081E-2</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ref="M35:M37" si="4">SUM(C35:L35)/10</f>
-        <v>1.2116517222171001E-2</v>
-      </c>
-      <c r="N35">
-        <v>8.9632855535042542E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36"/>
       <c r="B36">
+        <v>1.3884745774469151E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.5785075466687379E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.3109840600866099E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.486361719486874E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.379771493361945E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.389340449931019E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.390906563356366E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.5698815195932539E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.323866724029839E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.5927163302401692E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>1.4410810984201727E-2</v>
+      </c>
+      <c r="M36">
         <v>1.27603290576079E-2</v>
       </c>
-      <c r="C36">
-        <v>1.3884745774469151E-2</v>
-      </c>
-      <c r="D36">
-        <v>1.6280650239744579E-2</v>
-      </c>
-      <c r="E36">
-        <v>1.584807909274713E-2</v>
-      </c>
-      <c r="F36">
-        <v>1.639192946533528E-2</v>
-      </c>
-      <c r="G36">
-        <v>1.571537855320124E-2</v>
-      </c>
-      <c r="H36">
-        <v>1.5922682979086649E-2</v>
-      </c>
-      <c r="I36">
-        <v>1.567340655738627E-2</v>
-      </c>
-      <c r="J36">
-        <v>1.690744293312705E-2</v>
-      </c>
-      <c r="K36">
-        <v>1.587435630572467E-2</v>
-      </c>
-      <c r="L36">
-        <v>1.613498783246986E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="4"/>
-        <v>1.5863365973329189E-2</v>
-      </c>
-      <c r="N36">
-        <v>1.27603290576079E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37"/>
       <c r="B37">
-        <v>1.2512284963414231E-2</v>
+        <v>1.3618036795959489E-2</v>
       </c>
       <c r="C37">
-        <v>1.3618036795959489E-2</v>
+        <v>1.3620145024322371E-2</v>
       </c>
       <c r="D37">
-        <v>2.0008374935231471E-2</v>
+        <v>1.4794926407909871E-2</v>
       </c>
       <c r="E37">
-        <v>2.013187101808022E-2</v>
+        <v>1.551446116010011E-2</v>
       </c>
       <c r="F37">
-        <v>1.97653752516085E-2</v>
+        <v>1.473905754030201E-2</v>
       </c>
       <c r="G37">
-        <v>2.1467319062533931E-2</v>
+        <v>1.4455857161286501E-2</v>
       </c>
       <c r="H37">
-        <v>1.9135403142946709E-2</v>
+        <v>1.5119300117048829E-2</v>
       </c>
       <c r="I37">
-        <v>1.7839837492888842E-2</v>
+        <v>1.5060908322826951E-2</v>
       </c>
       <c r="J37">
-        <v>1.9961993032172901E-2</v>
+        <v>1.42976718314558E-2</v>
       </c>
       <c r="K37">
-        <v>1.8017078090007872E-2</v>
+        <v>1.5699027046389761E-2</v>
       </c>
       <c r="L37">
-        <v>1.8817030518841999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4691939140760168E-2</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
-        <v>1.8876231934027193E-2</v>
-      </c>
-      <c r="N37">
         <v>1.2512284963414231E-2</v>
       </c>
     </row>

--- a/reports/spambase/sum.xlsx
+++ b/reports/spambase/sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sum" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>DT</t>
   </si>
@@ -289,6 +289,12 @@
   <si>
     <t>XGB_RUS_9</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
 </sst>
 </file>
 
@@ -327,12 +333,18 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -373,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -409,6 +421,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1025,11 +1045,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="500115664"/>
-        <c:axId val="679416272"/>
+        <c:axId val="226082880"/>
+        <c:axId val="226085232"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="500115664"/>
+        <c:axId val="226082880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1092,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679416272"/>
+        <c:crossAx val="226085232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679416272"/>
+        <c:axId val="226085232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1151,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500115664"/>
+        <c:crossAx val="226082880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1939,11 +1959,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="679414312"/>
-        <c:axId val="679417056"/>
+        <c:axId val="226083272"/>
+        <c:axId val="226078176"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="679414312"/>
+        <c:axId val="226083272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2020,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679417056"/>
+        <c:crossAx val="226078176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679417056"/>
+        <c:axId val="226078176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2079,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679414312"/>
+        <c:crossAx val="226083272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2875,11 +2895,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="679414704"/>
-        <c:axId val="679415096"/>
+        <c:axId val="226081312"/>
+        <c:axId val="226083664"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="679414704"/>
+        <c:axId val="226081312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +2956,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679415096"/>
+        <c:crossAx val="226083664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2944,7 +2964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679415096"/>
+        <c:axId val="226083664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3015,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679414704"/>
+        <c:crossAx val="226081312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4017,11 +4037,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="679420976"/>
-        <c:axId val="679421368"/>
+        <c:axId val="233022880"/>
+        <c:axId val="233019352"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="679420976"/>
+        <c:axId val="233022880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4098,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679421368"/>
+        <c:crossAx val="233019352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4086,7 +4106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679421368"/>
+        <c:axId val="233019352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4157,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679420976"/>
+        <c:crossAx val="233022880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6998,7 +7018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
@@ -9692,14 +9712,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
@@ -9761,7 +9786,7 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -9773,7 +9798,7 @@
       <c r="X2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -9859,7 +9884,7 @@
       <c r="T3" s="7">
         <v>0.94714780274127452</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="18">
         <v>0.95463659147869662</v>
       </c>
       <c r="V3" s="7">
@@ -9872,7 +9897,7 @@
         <f>mean!M35</f>
         <v>0.95349624060150384</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="16">
         <v>0.95819548872180449</v>
       </c>
       <c r="Z3" s="7">
@@ -9959,7 +9984,7 @@
       <c r="T4" s="7">
         <v>0.93475146953772703</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="18">
         <v>0.95465648424647032</v>
       </c>
       <c r="V4" s="7">
@@ -9972,7 +9997,7 @@
         <f>mean!M36</f>
         <v>0.95345581866302653</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="16">
         <v>0.95842238824330561</v>
       </c>
       <c r="Z4" s="7">
@@ -10059,7 +10084,7 @@
       <c r="T5" s="7">
         <v>0.94063002515926175</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="18">
         <v>0.95431497626030481</v>
       </c>
       <c r="V5" s="7">
@@ -10072,7 +10097,7 @@
         <f>mean!M37</f>
         <v>0.95440054843153832</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="16">
         <v>0.95355279706781415</v>
       </c>
       <c r="Z5" s="7">
@@ -10159,7 +10184,7 @@
       <c r="T6" s="7">
         <v>0.92942716597905406</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="18">
         <v>0.95518894472361804</v>
       </c>
       <c r="V6" s="7">
@@ -10172,7 +10197,7 @@
         <f>mean!M38</f>
         <v>0.95272924623115574</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="16">
         <v>0.96351030150753758</v>
       </c>
       <c r="Z6" s="7">
@@ -10195,6 +10220,13 @@
         <v>0.9245123115577889</v>
       </c>
     </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="Y7" s="16"/>
+    </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
@@ -10259,7 +10291,7 @@
       <c r="T8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -10272,7 +10304,7 @@
         <f>X2</f>
         <v>XGB_RUS</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="Z8" s="1" t="s">
@@ -10359,7 +10391,7 @@
       <c r="T9" s="7">
         <v>1.327399333478925E-2</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="18">
         <v>9.851250128838869E-3</v>
       </c>
       <c r="V9" s="7">
@@ -10372,7 +10404,7 @@
         <f>std!L34</f>
         <v>1.0471741443286152E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="16">
         <v>9.0564664910831733E-3</v>
       </c>
       <c r="Z9" s="7">
@@ -10459,7 +10491,7 @@
       <c r="T10" s="7">
         <v>1.6635315677837801E-2</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="18">
         <v>9.8524952924680716E-3</v>
       </c>
       <c r="V10" s="7">
@@ -10472,7 +10504,7 @@
         <f>std!L35</f>
         <v>1.0494380628156901E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="16">
         <v>8.9632855535042542E-3</v>
       </c>
       <c r="Z10" s="7">
@@ -10559,7 +10591,7 @@
       <c r="T11" s="7">
         <v>2.0317308765703632E-2</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="18">
         <v>1.3303734459659379E-2</v>
       </c>
       <c r="V11" s="7">
@@ -10572,7 +10604,7 @@
         <f>std!L36</f>
         <v>1.4410810984201727E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="16">
         <v>1.27603290576079E-2</v>
       </c>
       <c r="Z11" s="7">
@@ -10659,7 +10691,7 @@
       <c r="T12" s="7">
         <v>2.4151659007285432E-2</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="18">
         <v>1.408335162201348E-2</v>
       </c>
       <c r="V12" s="7">
@@ -10672,7 +10704,7 @@
         <f>std!L37</f>
         <v>1.4691939140760168E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="16">
         <v>1.2512284963414231E-2</v>
       </c>
       <c r="Z12" s="7">
@@ -11047,7 +11079,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
